--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_5_28.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_5_28.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1116245.294210339</v>
+        <v>1165475.813640904</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>18142616.70954774</v>
+        <v>16659530.99074005</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2060125.517083133</v>
+        <v>606553.2040797165</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6519489.649504383</v>
+        <v>7019604.154031083</v>
       </c>
     </row>
     <row r="11">
@@ -659,16 +661,16 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>431.5506869772999</v>
+        <v>378.8930818762257</v>
       </c>
       <c r="E2" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -713,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -722,10 +724,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>94.91557770611493</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="3">
@@ -829,13 +831,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022953</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,13 +864,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>35.20092700998597</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
         <v>275.6486707394257</v>
@@ -893,28 +895,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005869</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C5" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>431.5506869772999</v>
+        <v>102.7176563887149</v>
       </c>
       <c r="E5" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F5" t="n">
-        <v>423.5887552948843</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G5" t="n">
-        <v>70.75434793228368</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -956,10 +958,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
         <v>404.2032624633431</v>
@@ -1063,10 +1065,10 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
@@ -1102,13 +1104,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>52.51170991984834</v>
+        <v>221.1652862082624</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
@@ -1130,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>422.0365747800587</v>
+        <v>335.8915546016272</v>
       </c>
       <c r="C8" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D8" t="n">
         <v>31.5506869772999</v>
@@ -1148,10 +1150,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>143.5062754865797</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
         <v>400.806900043077</v>
@@ -1300,16 +1302,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>174.9399834978613</v>
+        <v>52.00914065545653</v>
       </c>
       <c r="G10" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
-        <v>114.8528499950181</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>157.6489550149833</v>
@@ -1345,7 +1347,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
@@ -1354,7 +1356,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>225.1454739790328</v>
@@ -1367,16 +1369,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>310.8326411358238</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D11" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
@@ -1385,10 +1387,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1424,10 +1426,10 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
-        <v>250.2071507222273</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
         <v>400.806900043077</v>
@@ -1531,13 +1533,13 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>163.9353622244306</v>
@@ -1546,7 +1548,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>32.98066327132577</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>157.6489550149833</v>
+        <v>134.7806822622888</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1604,16 +1606,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>138.8889050321579</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
         <v>423.5887552948843</v>
@@ -1622,10 +1624,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
         <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>289.3040482197699</v>
       </c>
       <c r="Y14" t="n">
         <v>404.2032624633431</v>
@@ -1774,16 +1776,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F16" t="n">
-        <v>14.14416275345381</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,7 +1815,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1822,7 +1824,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
-        <v>284.0859530482738</v>
+        <v>279.808058998282</v>
       </c>
       <c r="W16" t="n">
         <v>269.3061403695714</v>
@@ -1831,7 +1833,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1844,13 +1846,13 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>433.7610480884122</v>
       </c>
       <c r="D17" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932889</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
         <v>423.5887552948843</v>
@@ -2017,10 +2019,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,13 +2052,13 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>18.05677735226246</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
-        <v>67.42894579208244</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V19" t="n">
         <v>284.0859530482738</v>
@@ -2138,7 +2140,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655127</v>
       </c>
       <c r="W20" t="n">
         <v>400.806900043077</v>
@@ -2251,7 +2253,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>24.34318456170439</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -2287,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
@@ -2488,13 +2490,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>3.139541480022588</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,19 +2523,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T25" t="n">
-        <v>161.6379250432762</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U25" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
         <v>269.3061403695714</v>
@@ -2722,7 +2724,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>140.2653052259352</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
         <v>163.9353622244306</v>
@@ -2731,7 +2733,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2764,16 +2766,16 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>269.3061403695714</v>
+        <v>187.5234134555184</v>
       </c>
       <c r="X28" t="n">
         <v>242.9378371199217</v>
@@ -2947,13 +2949,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C31" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>168.0604237117701</v>
@@ -2965,10 +2967,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>98.98021706930123</v>
+        <v>3.423392126084468</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,7 +3000,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3199,13 +3201,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>163.9353622244306</v>
+        <v>3.139541480022588</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
         <v>157.6489550149833</v>
@@ -3241,10 +3243,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V34" t="n">
-        <v>193.8659438253727</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
         <v>269.3061403695714</v>
@@ -3436,13 +3438,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>114.8528499950186</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,16 +3471,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>243.4206519573293</v>
+        <v>199.1362892344166</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
         <v>284.0859530482738</v>
@@ -3676,10 +3678,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>18.05677735225841</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,19 +3711,19 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V40" t="n">
         <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>179.0861311466703</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
         <v>242.9378371199217</v>
@@ -3743,22 +3745,22 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>43.26654061043267</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
@@ -3797,16 +3799,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>248.1994684004084</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X41" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="42">
@@ -3898,7 +3900,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
         <v>164.2192128704925</v>
@@ -3913,10 +3915,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,7 +3948,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>18.05677735225796</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3955,7 +3957,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
-        <v>246.7023225025379</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W43" t="n">
         <v>269.3061403695714</v>
@@ -3974,7 +3976,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
         <v>433.7610480884109</v>
@@ -3983,13 +3985,13 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>272.1494839753878</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4034,16 +4036,16 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>78.28841429379531</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="45">
@@ -4132,16 +4134,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>109.3916857660883</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
         <v>174.9399834978613</v>
@@ -4150,10 +4152,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>3.42339212608489</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4304,52 +4306,52 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1385.055244562854</v>
+        <v>927.8253404203546</v>
       </c>
       <c r="C2" t="n">
-        <v>1350.953175786681</v>
+        <v>489.6828676037779</v>
       </c>
       <c r="D2" t="n">
-        <v>915.0433909611256</v>
+        <v>106.9625828803175</v>
       </c>
       <c r="E2" t="n">
-        <v>481.2686461194208</v>
+        <v>77.22824207901678</v>
       </c>
       <c r="F2" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="G2" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H2" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I2" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J2" t="n">
-        <v>53.40121652862856</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K2" t="n">
-        <v>53.40121652862856</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L2" t="n">
-        <v>53.40121652862856</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M2" t="n">
-        <v>53.40121652862856</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N2" t="n">
-        <v>714.2412710704069</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O2" t="n">
         <v>1293.567921177998</v>
       </c>
       <c r="P2" t="n">
-        <v>1954.407975719776</v>
+        <v>1954.407975719777</v>
       </c>
       <c r="Q2" t="n">
-        <v>2500.906761678371</v>
+        <v>2500.906761678372</v>
       </c>
       <c r="R2" t="n">
         <v>2670.060826431428</v>
@@ -4361,19 +4363,19 @@
         <v>2586.408952615265</v>
       </c>
       <c r="U2" t="n">
-        <v>2327.186649932281</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="V2" t="n">
-        <v>2327.186649932281</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="W2" t="n">
-        <v>1922.331195343315</v>
+        <v>2181.553498026298</v>
       </c>
       <c r="X2" t="n">
-        <v>1907.229135963029</v>
+        <v>1762.411034605609</v>
       </c>
       <c r="Y2" t="n">
-        <v>1811.354815047762</v>
+        <v>1354.124910905262</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1512.992809943912</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C3" t="n">
-        <v>1406.536348780554</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D3" t="n">
-        <v>1311.446059927107</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E3" t="n">
-        <v>1217.325645254061</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F3" t="n">
-        <v>1133.941806870223</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G3" t="n">
-        <v>1048.556717136407</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H3" t="n">
-        <v>1006.821064952619</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I3" t="n">
-        <v>1032.884738113077</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J3" t="n">
-        <v>1032.884738113077</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="K3" t="n">
-        <v>1032.884738113077</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="L3" t="n">
-        <v>1351.309055163234</v>
+        <v>714.241271070407</v>
       </c>
       <c r="M3" t="n">
-        <v>1351.309055163234</v>
+        <v>714.241271070407</v>
       </c>
       <c r="N3" t="n">
-        <v>1351.309055163234</v>
+        <v>714.241271070407</v>
       </c>
       <c r="O3" t="n">
-        <v>1351.309055163234</v>
+        <v>714.241271070407</v>
       </c>
       <c r="P3" t="n">
-        <v>2012.149109705013</v>
+        <v>1375.081325612186</v>
       </c>
       <c r="Q3" t="n">
-        <v>2552.888048337089</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R3" t="n">
-        <v>2670.060826431428</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S3" t="n">
-        <v>2606.605388879811</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T3" t="n">
-        <v>2476.426745210413</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U3" t="n">
-        <v>2300.090198210381</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V3" t="n">
-        <v>2100.97268027238</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W3" t="n">
-        <v>1915.649926005574</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X3" t="n">
-        <v>1760.782490244454</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y3" t="n">
-        <v>1634.296711023675</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1132.45937714051</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C4" t="n">
-        <v>959.897665623735</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D4" t="n">
-        <v>794.0196728252577</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E4" t="n">
-        <v>624.2616690759949</v>
+        <v>233.2795245870976</v>
       </c>
       <c r="F4" t="n">
-        <v>447.554615037751</v>
+        <v>56.57247054885377</v>
       </c>
       <c r="G4" t="n">
-        <v>281.9633400635787</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="H4" t="n">
-        <v>142.0611657539532</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="I4" t="n">
-        <v>53.40121652862856</v>
+        <v>53.40121652862857</v>
       </c>
       <c r="J4" t="n">
         <v>139.9809016933184</v>
@@ -4498,7 +4500,7 @@
         <v>1292.433105213328</v>
       </c>
       <c r="N4" t="n">
-        <v>1734.691908370972</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O4" t="n">
         <v>2154.361157596754</v>
@@ -4510,28 +4512,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R4" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S4" t="n">
-        <v>2670.060826431428</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T4" t="n">
-        <v>2634.504334502149</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U4" t="n">
-        <v>2356.071333755254</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V4" t="n">
-        <v>2069.115825625685</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W4" t="n">
-        <v>1797.089421211977</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X4" t="n">
-        <v>1551.697666545389</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y4" t="n">
-        <v>1324.277995859497</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="5">
@@ -4541,52 +4543,52 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1860.981476291556</v>
+        <v>648.8602641703436</v>
       </c>
       <c r="C5" t="n">
-        <v>1422.839003474979</v>
+        <v>210.7177913537669</v>
       </c>
       <c r="D5" t="n">
-        <v>986.9292186494238</v>
+        <v>106.9625828803175</v>
       </c>
       <c r="E5" t="n">
-        <v>553.1544738077189</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F5" t="n">
-        <v>125.2870442169266</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G5" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H5" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
         <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>488.6559039815464</v>
+        <v>141.0418768474983</v>
       </c>
       <c r="K5" t="n">
-        <v>488.6559039815464</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="L5" t="n">
-        <v>632.7278666362198</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="M5" t="n">
-        <v>632.7278666362198</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="N5" t="n">
-        <v>632.7278666362198</v>
+        <v>801.8819313892766</v>
       </c>
       <c r="O5" t="n">
-        <v>1293.567921177998</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="P5" t="n">
-        <v>1954.407975719776</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q5" t="n">
-        <v>2500.906761678371</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R5" t="n">
         <v>2670.060826431428</v>
@@ -4604,13 +4606,13 @@
         <v>2307.443876365254</v>
       </c>
       <c r="W5" t="n">
-        <v>2306.628825816691</v>
+        <v>1902.588421776288</v>
       </c>
       <c r="X5" t="n">
-        <v>2291.526766436406</v>
+        <v>1483.445958355598</v>
       </c>
       <c r="Y5" t="n">
-        <v>1883.24064273606</v>
+        <v>1075.159834655251</v>
       </c>
     </row>
     <row r="6">
@@ -4644,25 +4646,25 @@
         <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>79.46488968908616</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>79.46488968908616</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L6" t="n">
-        <v>79.46488968908616</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M6" t="n">
-        <v>79.46488968908616</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N6" t="n">
-        <v>277.7880908295411</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O6" t="n">
-        <v>938.6281453713194</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P6" t="n">
-        <v>1599.468199913098</v>
+        <v>1064.863269197077</v>
       </c>
       <c r="Q6" t="n">
         <v>1599.468199913098</v>
@@ -4699,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>966.8681021663376</v>
+        <v>955.7523231022661</v>
       </c>
       <c r="C7" t="n">
-        <v>794.3063906495626</v>
+        <v>783.1906115854911</v>
       </c>
       <c r="D7" t="n">
-        <v>628.4283978510853</v>
+        <v>617.3126187870138</v>
       </c>
       <c r="E7" t="n">
-        <v>458.6703941018225</v>
+        <v>447.554615037751</v>
       </c>
       <c r="F7" t="n">
-        <v>281.9633400635787</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G7" t="n">
         <v>281.9633400635787</v>
@@ -4750,25 +4752,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>2489.401636434797</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T7" t="n">
-        <v>2243.522190013252</v>
+        <v>2402.763558715255</v>
       </c>
       <c r="U7" t="n">
-        <v>2190.480058781082</v>
+        <v>2179.364279717011</v>
       </c>
       <c r="V7" t="n">
-        <v>1903.524550651513</v>
+        <v>1892.408771587441</v>
       </c>
       <c r="W7" t="n">
-        <v>1631.498146237804</v>
+        <v>1620.382367173733</v>
       </c>
       <c r="X7" t="n">
-        <v>1386.106391571217</v>
+        <v>1374.990612507145</v>
       </c>
       <c r="Y7" t="n">
-        <v>1158.686720885325</v>
+        <v>1147.570941821253</v>
       </c>
     </row>
     <row r="8">
@@ -4778,40 +4780,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>866.5213804116894</v>
+        <v>172.9340324416416</v>
       </c>
       <c r="C8" t="n">
-        <v>428.3789075951127</v>
+        <v>138.8319636654689</v>
       </c>
       <c r="D8" t="n">
-        <v>396.5095268099613</v>
+        <v>106.9625828803175</v>
       </c>
       <c r="E8" t="n">
-        <v>366.7751860086605</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F8" t="n">
-        <v>342.9481604582723</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G8" t="n">
-        <v>342.9481604582723</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>53.81800590148855</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
         <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>53.40121652862856</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>632.7278666362198</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="L8" t="n">
-        <v>632.7278666362198</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="M8" t="n">
-        <v>632.7278666362198</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="N8" t="n">
         <v>632.7278666362198</v>
@@ -4829,25 +4831,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>2525.1049926066</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V8" t="n">
-        <v>2525.1049926066</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W8" t="n">
-        <v>2120.249538017633</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="X8" t="n">
-        <v>1701.107074596944</v>
+        <v>920.5045547294905</v>
       </c>
       <c r="Y8" t="n">
-        <v>1292.820950896597</v>
+        <v>512.2184310291439</v>
       </c>
     </row>
     <row r="9">
@@ -4878,31 +4880,31 @@
         <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>53.40121652862856</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="L9" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="M9" t="n">
-        <v>53.40121652862856</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>53.40121652862856</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>714.2412710704069</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1175.902039375362</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1716.640978007438</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
         <v>1716.640978007438</v>
@@ -4936,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1019.910233398507</v>
+        <v>1008.286808612828</v>
       </c>
       <c r="C10" t="n">
-        <v>847.3485218817324</v>
+        <v>835.7250970960532</v>
       </c>
       <c r="D10" t="n">
-        <v>681.4705290832551</v>
+        <v>669.8471042975759</v>
       </c>
       <c r="E10" t="n">
-        <v>511.7125253339923</v>
+        <v>500.0891005483132</v>
       </c>
       <c r="F10" t="n">
-        <v>335.0054712957485</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>169.4141963215762</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>53.40121652862856</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
         <v>53.40121652862856</v>
@@ -4984,28 +4986,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2648.6430051368</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>2489.401636434797</v>
+        <v>2510.819457729425</v>
       </c>
       <c r="T10" t="n">
-        <v>2243.522190013252</v>
+        <v>2264.94001130788</v>
       </c>
       <c r="U10" t="n">
-        <v>2243.522190013252</v>
+        <v>1986.507010560985</v>
       </c>
       <c r="V10" t="n">
-        <v>1956.566681883682</v>
+        <v>1699.551502431416</v>
       </c>
       <c r="W10" t="n">
-        <v>1684.540277469974</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="X10" t="n">
-        <v>1439.148522803386</v>
+        <v>1427.525098017707</v>
       </c>
       <c r="Y10" t="n">
-        <v>1211.728852117495</v>
+        <v>1200.105427331815</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1321.301445449862</v>
+        <v>2520.409306699863</v>
       </c>
       <c r="C11" t="n">
-        <v>1321.301445449862</v>
+        <v>2082.266833883286</v>
       </c>
       <c r="D11" t="n">
-        <v>885.391660624306</v>
+        <v>1646.357049057731</v>
       </c>
       <c r="E11" t="n">
-        <v>885.391660624306</v>
+        <v>1212.582304216026</v>
       </c>
       <c r="F11" t="n">
-        <v>457.5242310335137</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G11" t="n">
-        <v>56.12639965677763</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H11" t="n">
-        <v>56.12639965677763</v>
+        <v>94.18688869171365</v>
       </c>
       <c r="I11" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J11" t="n">
-        <v>491.3810871096955</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K11" t="n">
-        <v>1185.945282862319</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L11" t="n">
-        <v>1185.945282862319</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="M11" t="n">
-        <v>1185.945282862319</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="N11" t="n">
-        <v>1185.945282862319</v>
+        <v>2164.362573827329</v>
       </c>
       <c r="O11" t="n">
-        <v>1396.102936374607</v>
+        <v>3144.542240397635</v>
       </c>
       <c r="P11" t="n">
-        <v>2090.66713212723</v>
+        <v>3972.852115231031</v>
       </c>
       <c r="Q11" t="n">
-        <v>2637.165918085825</v>
+        <v>4519.350901189626</v>
       </c>
       <c r="R11" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="S11" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="T11" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="U11" t="n">
-        <v>2806.319982838882</v>
+        <v>4429.282663259699</v>
       </c>
       <c r="V11" t="n">
-        <v>2553.585487159864</v>
+        <v>4066.665713193525</v>
       </c>
       <c r="W11" t="n">
-        <v>2148.730032570897</v>
+        <v>3661.810258604559</v>
       </c>
       <c r="X11" t="n">
-        <v>1729.587569150208</v>
+        <v>3242.66779518387</v>
       </c>
       <c r="Y11" t="n">
-        <v>1321.301445449862</v>
+        <v>2834.381671483523</v>
       </c>
     </row>
     <row r="12">
@@ -5094,76 +5096,76 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>562.2981446480704</v>
+        <v>599.9418443101464</v>
       </c>
       <c r="C12" t="n">
-        <v>455.8416834847127</v>
+        <v>493.4853831467887</v>
       </c>
       <c r="D12" t="n">
-        <v>360.751394631266</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E12" t="n">
-        <v>266.6309799582197</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F12" t="n">
-        <v>183.2471415743813</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G12" t="n">
-        <v>97.86205184056516</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H12" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I12" t="n">
-        <v>82.19007281723522</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J12" t="n">
-        <v>82.19007281723522</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K12" t="n">
-        <v>82.19007281723522</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="L12" t="n">
-        <v>213.0649915360004</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="M12" t="n">
-        <v>907.6291872886236</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="N12" t="n">
-        <v>1602.193383041247</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="O12" t="n">
-        <v>1602.193383041247</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="P12" t="n">
-        <v>1602.193383041247</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q12" t="n">
-        <v>1602.193383041247</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R12" t="n">
-        <v>1719.366161135586</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="S12" t="n">
-        <v>1655.910723583969</v>
+        <v>1693.554423246045</v>
       </c>
       <c r="T12" t="n">
-        <v>1525.732079914571</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U12" t="n">
-        <v>1349.395532914539</v>
+        <v>1387.039232576615</v>
       </c>
       <c r="V12" t="n">
-        <v>1150.278014976539</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W12" t="n">
-        <v>964.9552607097328</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X12" t="n">
-        <v>810.0878249486128</v>
+        <v>847.7315246106888</v>
       </c>
       <c r="Y12" t="n">
-        <v>683.6020457278336</v>
+        <v>721.2457453899095</v>
       </c>
     </row>
     <row r="13">
@@ -5173,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>877.7363890590659</v>
+        <v>826.3632021432285</v>
       </c>
       <c r="C13" t="n">
-        <v>705.1746775422909</v>
+        <v>653.8014906264534</v>
       </c>
       <c r="D13" t="n">
-        <v>705.1746775422909</v>
+        <v>487.9234978279761</v>
       </c>
       <c r="E13" t="n">
-        <v>705.1746775422909</v>
+        <v>487.9234978279761</v>
       </c>
       <c r="F13" t="n">
-        <v>528.4676235040471</v>
+        <v>487.9234978279761</v>
       </c>
       <c r="G13" t="n">
-        <v>362.8763485298747</v>
+        <v>322.3322228538038</v>
       </c>
       <c r="H13" t="n">
-        <v>222.9741742202493</v>
+        <v>182.4300485441783</v>
       </c>
       <c r="I13" t="n">
-        <v>189.6603729360818</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J13" t="n">
-        <v>276.2400581007717</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K13" t="n">
-        <v>550.9985126719073</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L13" t="n">
-        <v>969.2083944398684</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M13" t="n">
-        <v>1428.692261620781</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N13" t="n">
-        <v>1870.951064778426</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O13" t="n">
-        <v>2290.620314004207</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P13" t="n">
-        <v>2638.127207974549</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q13" t="n">
-        <v>2806.319982838882</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R13" t="n">
-        <v>2784.902161544253</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S13" t="n">
-        <v>2625.66079284225</v>
+        <v>2574.287605926412</v>
       </c>
       <c r="T13" t="n">
-        <v>2379.781346420705</v>
+        <v>2328.408159504867</v>
       </c>
       <c r="U13" t="n">
-        <v>2101.34834567381</v>
+        <v>2049.975158757973</v>
       </c>
       <c r="V13" t="n">
-        <v>1814.392837544241</v>
+        <v>1763.019650628403</v>
       </c>
       <c r="W13" t="n">
-        <v>1542.366433130532</v>
+        <v>1490.993246214695</v>
       </c>
       <c r="X13" t="n">
-        <v>1296.974678463945</v>
+        <v>1245.601491548107</v>
       </c>
       <c r="Y13" t="n">
-        <v>1069.555007778053</v>
+        <v>1018.181820862216</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5254,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1314.813638445896</v>
+        <v>2231.279152143079</v>
       </c>
       <c r="C14" t="n">
-        <v>1314.813638445896</v>
+        <v>1793.136679326502</v>
       </c>
       <c r="D14" t="n">
-        <v>1314.813638445896</v>
+        <v>1357.226894500947</v>
       </c>
       <c r="E14" t="n">
-        <v>1174.52181518109</v>
+        <v>923.452149659242</v>
       </c>
       <c r="F14" t="n">
-        <v>746.6543855902975</v>
+        <v>495.5847200684498</v>
       </c>
       <c r="G14" t="n">
-        <v>345.2565542135613</v>
+        <v>94.18688869171365</v>
       </c>
       <c r="H14" t="n">
-        <v>56.12639965677763</v>
+        <v>94.18688869171365</v>
       </c>
       <c r="I14" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J14" t="n">
-        <v>56.12639965677763</v>
+        <v>424.1063803693477</v>
       </c>
       <c r="K14" t="n">
-        <v>750.6905954094008</v>
+        <v>1258.456672327526</v>
       </c>
       <c r="L14" t="n">
-        <v>750.6905954094008</v>
+        <v>2333.516638580385</v>
       </c>
       <c r="M14" t="n">
-        <v>1248.037526580578</v>
+        <v>2333.516638580385</v>
       </c>
       <c r="N14" t="n">
-        <v>1248.037526580578</v>
+        <v>2333.516638580385</v>
       </c>
       <c r="O14" t="n">
-        <v>1942.601722333201</v>
+        <v>3313.696305150691</v>
       </c>
       <c r="P14" t="n">
-        <v>2637.165918085825</v>
+        <v>4142.006179984088</v>
       </c>
       <c r="Q14" t="n">
-        <v>2637.165918085825</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="R14" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="S14" t="n">
-        <v>2806.319982838882</v>
+        <v>4604.853092126519</v>
       </c>
       <c r="T14" t="n">
-        <v>2806.319982838882</v>
+        <v>4384.785864999558</v>
       </c>
       <c r="U14" t="n">
-        <v>2547.097680155898</v>
+        <v>4125.563562316574</v>
       </c>
       <c r="V14" t="n">
-        <v>2547.097680155898</v>
+        <v>3762.946612250401</v>
       </c>
       <c r="W14" t="n">
-        <v>2142.242225566932</v>
+        <v>3358.091157661434</v>
       </c>
       <c r="X14" t="n">
-        <v>1723.099762146242</v>
+        <v>3065.864846328333</v>
       </c>
       <c r="Y14" t="n">
-        <v>1314.813638445896</v>
+        <v>2657.578722627987</v>
       </c>
     </row>
     <row r="15">
@@ -5331,76 +5333,76 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>562.2981446480704</v>
+        <v>599.9418443101464</v>
       </c>
       <c r="C15" t="n">
-        <v>455.8416834847127</v>
+        <v>493.4853831467887</v>
       </c>
       <c r="D15" t="n">
-        <v>360.751394631266</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E15" t="n">
-        <v>266.6309799582197</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F15" t="n">
-        <v>183.2471415743813</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G15" t="n">
-        <v>97.86205184056516</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H15" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I15" t="n">
-        <v>82.19007281723522</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J15" t="n">
-        <v>406.7483977834476</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K15" t="n">
-        <v>1061.454444409171</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="L15" t="n">
-        <v>1061.454444409171</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="M15" t="n">
-        <v>1061.454444409171</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N15" t="n">
-        <v>1061.454444409171</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O15" t="n">
-        <v>1061.454444409171</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P15" t="n">
-        <v>1061.454444409171</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q15" t="n">
-        <v>1602.193383041247</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R15" t="n">
-        <v>1719.366161135586</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="S15" t="n">
-        <v>1655.910723583969</v>
+        <v>1693.554423246045</v>
       </c>
       <c r="T15" t="n">
-        <v>1525.732079914571</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U15" t="n">
-        <v>1349.395532914539</v>
+        <v>1387.039232576615</v>
       </c>
       <c r="V15" t="n">
-        <v>1150.278014976539</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W15" t="n">
-        <v>964.9552607097328</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X15" t="n">
-        <v>810.0878249486128</v>
+        <v>847.7315246106888</v>
       </c>
       <c r="Y15" t="n">
-        <v>683.6020457278336</v>
+        <v>721.2457453899095</v>
       </c>
     </row>
     <row r="16">
@@ -5410,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>744.2024157797618</v>
+        <v>1172.828259930735</v>
       </c>
       <c r="C16" t="n">
-        <v>571.6407042629868</v>
+        <v>1000.26654841396</v>
       </c>
       <c r="D16" t="n">
-        <v>405.7627114645095</v>
+        <v>834.3885556154826</v>
       </c>
       <c r="E16" t="n">
-        <v>236.0047077152468</v>
+        <v>664.6305518662199</v>
       </c>
       <c r="F16" t="n">
-        <v>221.71767463095</v>
+        <v>487.9234978279761</v>
       </c>
       <c r="G16" t="n">
-        <v>56.12639965677763</v>
+        <v>322.3322228538038</v>
       </c>
       <c r="H16" t="n">
-        <v>56.12639965677763</v>
+        <v>182.4300485441783</v>
       </c>
       <c r="I16" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J16" t="n">
-        <v>142.7060848214675</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K16" t="n">
-        <v>417.4645393926031</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L16" t="n">
-        <v>835.6744211605641</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M16" t="n">
-        <v>1295.158288341477</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N16" t="n">
-        <v>1737.417091499122</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O16" t="n">
-        <v>2157.086340724903</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P16" t="n">
-        <v>2504.593234695245</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q16" t="n">
-        <v>2672.786009559577</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R16" t="n">
-        <v>2651.368188264949</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="S16" t="n">
-        <v>2492.126819562946</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="T16" t="n">
-        <v>2246.247373141401</v>
+        <v>2443.132441505481</v>
       </c>
       <c r="U16" t="n">
-        <v>1967.814372394506</v>
+        <v>2164.699440758586</v>
       </c>
       <c r="V16" t="n">
-        <v>1680.858864264937</v>
+        <v>1882.065037730018</v>
       </c>
       <c r="W16" t="n">
-        <v>1408.832459851228</v>
+        <v>1610.03863331631</v>
       </c>
       <c r="X16" t="n">
-        <v>1163.440705184641</v>
+        <v>1364.646878649722</v>
       </c>
       <c r="Y16" t="n">
-        <v>936.021034498749</v>
+        <v>1364.646878649722</v>
       </c>
     </row>
     <row r="17">
@@ -5492,10 +5494,10 @@
         <v>2528.90004765179</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E17" t="n">
         <v>1221.073045167952</v>
@@ -5513,28 +5515,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K17" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L17" t="n">
-        <v>2446.925785934734</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="M17" t="n">
-        <v>2446.925785934734</v>
+        <v>2093.658967439508</v>
       </c>
       <c r="N17" t="n">
-        <v>2588.899621423628</v>
+        <v>3219.389950875955</v>
       </c>
       <c r="O17" t="n">
-        <v>3569.079287993934</v>
+        <v>4199.569617446262</v>
       </c>
       <c r="P17" t="n">
-        <v>4397.38916282733</v>
+        <v>5027.879492279658</v>
       </c>
       <c r="Q17" t="n">
-        <v>4943.887948785925</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R17" t="n">
         <v>5113.042013538981</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1181.319000882661</v>
+        <v>3346.878440713109</v>
       </c>
       <c r="C19" t="n">
-        <v>1008.757289365886</v>
+        <v>3174.316729196334</v>
       </c>
       <c r="D19" t="n">
-        <v>842.8792965674086</v>
+        <v>3008.438736397857</v>
       </c>
       <c r="E19" t="n">
-        <v>673.1212928181459</v>
+        <v>2838.680732648594</v>
       </c>
       <c r="F19" t="n">
-        <v>496.4142387799021</v>
+        <v>2661.97367861035</v>
       </c>
       <c r="G19" t="n">
-        <v>330.8229638057298</v>
+        <v>2496.382403636178</v>
       </c>
       <c r="H19" t="n">
-        <v>190.9207894961043</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="I19" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="J19" t="n">
-        <v>188.8405254354695</v>
+        <v>2582.962088800872</v>
       </c>
       <c r="K19" t="n">
-        <v>463.598980006605</v>
+        <v>2857.720543372007</v>
       </c>
       <c r="L19" t="n">
-        <v>881.8088617745661</v>
+        <v>3275.930425139968</v>
       </c>
       <c r="M19" t="n">
-        <v>1341.292728955479</v>
+        <v>3735.414292320881</v>
       </c>
       <c r="N19" t="n">
-        <v>1783.551532113124</v>
+        <v>4177.673095478525</v>
       </c>
       <c r="O19" t="n">
-        <v>2203.220781338905</v>
+        <v>4597.342344704308</v>
       </c>
       <c r="P19" t="n">
-        <v>2550.727675309247</v>
+        <v>4944.849238674649</v>
       </c>
       <c r="Q19" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R19" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S19" t="n">
-        <v>2718.920450173579</v>
+        <v>5094.802844496292</v>
       </c>
       <c r="T19" t="n">
-        <v>2473.041003752034</v>
+        <v>4848.923398074748</v>
       </c>
       <c r="U19" t="n">
-        <v>2404.930957497405</v>
+        <v>4570.490397327853</v>
       </c>
       <c r="V19" t="n">
-        <v>2117.975449367836</v>
+        <v>4283.534889198284</v>
       </c>
       <c r="W19" t="n">
-        <v>1845.949044954127</v>
+        <v>4011.508484784576</v>
       </c>
       <c r="X19" t="n">
-        <v>1600.55729028754</v>
+        <v>3766.116730117988</v>
       </c>
       <c r="Y19" t="n">
-        <v>1373.137619601648</v>
+        <v>3538.697059432096</v>
       </c>
     </row>
     <row r="20">
@@ -5738,64 +5740,64 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K20" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L20" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M20" t="n">
-        <v>2588.899621423627</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N20" t="n">
-        <v>2588.899621423627</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O20" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P20" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q20" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V20" t="n">
         <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X20" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="21">
@@ -5805,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>608.4325852620724</v>
+        <v>3955.973997051466</v>
       </c>
       <c r="C21" t="n">
-        <v>501.9761240987147</v>
+        <v>3849.517535888108</v>
       </c>
       <c r="D21" t="n">
-        <v>406.885835245268</v>
+        <v>3754.427247034661</v>
       </c>
       <c r="E21" t="n">
-        <v>312.7654205722217</v>
+        <v>3660.306832361615</v>
       </c>
       <c r="F21" t="n">
-        <v>229.3815821883833</v>
+        <v>3576.922993977777</v>
       </c>
       <c r="G21" t="n">
-        <v>143.9964924545671</v>
+        <v>3491.53790424396</v>
       </c>
       <c r="H21" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="I21" t="n">
-        <v>128.3245134312372</v>
+        <v>3475.865925220631</v>
       </c>
       <c r="J21" t="n">
-        <v>452.8828383974496</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="K21" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="L21" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="M21" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="N21" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="O21" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="P21" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="Q21" t="n">
-        <v>1648.327823655249</v>
+        <v>4995.869235444641</v>
       </c>
       <c r="R21" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S21" t="n">
-        <v>1702.045164197971</v>
+        <v>5049.586575987364</v>
       </c>
       <c r="T21" t="n">
-        <v>1571.866520528573</v>
+        <v>4919.407932317966</v>
       </c>
       <c r="U21" t="n">
-        <v>1395.529973528541</v>
+        <v>4743.071385317934</v>
       </c>
       <c r="V21" t="n">
-        <v>1196.412455590541</v>
+        <v>4543.953867379933</v>
       </c>
       <c r="W21" t="n">
-        <v>1011.089701323735</v>
+        <v>4358.631113113128</v>
       </c>
       <c r="X21" t="n">
-        <v>856.2222655626148</v>
+        <v>4203.763677352008</v>
       </c>
       <c r="Y21" t="n">
-        <v>729.7364863418355</v>
+        <v>4077.277898131229</v>
       </c>
     </row>
     <row r="22">
@@ -5884,19 +5886,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>811.7546776883914</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C22" t="n">
-        <v>639.1929661716164</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D22" t="n">
-        <v>473.3149733731391</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E22" t="n">
-        <v>303.5569696238763</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F22" t="n">
-        <v>126.8499155856325</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G22" t="n">
         <v>102.2608402707796</v>
@@ -5935,25 +5937,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2559.679081471576</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T22" t="n">
-        <v>2313.799635050031</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U22" t="n">
-        <v>2035.366634303136</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V22" t="n">
-        <v>1748.411126173566</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W22" t="n">
-        <v>1476.384721759858</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X22" t="n">
-        <v>1230.99296709327</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y22" t="n">
-        <v>1003.573296407379</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="23">
@@ -5975,40 +5977,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K23" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L23" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M23" t="n">
-        <v>2588.899621423627</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N23" t="n">
-        <v>2588.899621423627</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O23" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="P23" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="Q23" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6026,13 +6028,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X23" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="24">
@@ -6063,31 +6065,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J24" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K24" t="n">
-        <v>1107.588885023173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L24" t="n">
-        <v>1107.588885023173</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="M24" t="n">
-        <v>1107.588885023173</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="N24" t="n">
-        <v>1107.588885023173</v>
+        <v>1056.803889081883</v>
       </c>
       <c r="O24" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P24" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q24" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6121,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1181.319000882661</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C25" t="n">
-        <v>1008.757289365886</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D25" t="n">
-        <v>842.8792965674086</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E25" t="n">
-        <v>673.1212928181459</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F25" t="n">
-        <v>496.4142387799021</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="G25" t="n">
-        <v>330.8229638057298</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6169,28 +6171,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S25" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T25" t="n">
-        <v>2396.408450114731</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U25" t="n">
-        <v>2117.975449367836</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V25" t="n">
-        <v>2117.975449367836</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W25" t="n">
-        <v>1845.949044954127</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X25" t="n">
-        <v>1600.55729028754</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y25" t="n">
-        <v>1373.137619601648</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="26">
@@ -6212,40 +6214,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>1371.865819681875</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L26" t="n">
-        <v>2446.925785934734</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M26" t="n">
-        <v>2446.925785934734</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N26" t="n">
-        <v>3572.656769371182</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O26" t="n">
-        <v>3572.656769371182</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P26" t="n">
-        <v>4400.966644204577</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q26" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6263,13 +6265,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X26" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="27">
@@ -6300,31 +6302,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>128.3245134312372</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J27" t="n">
-        <v>452.8828383974496</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K27" t="n">
-        <v>1107.588885023173</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="L27" t="n">
-        <v>1107.588885023173</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="M27" t="n">
-        <v>1107.588885023173</v>
+        <v>782.9943603411569</v>
       </c>
       <c r="N27" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O27" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="P27" t="n">
-        <v>1107.588885023173</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="Q27" t="n">
-        <v>1648.327823655249</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="R27" t="n">
         <v>1765.500601749588</v>
@@ -6358,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1057.634124109936</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C28" t="n">
-        <v>885.0724125931612</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D28" t="n">
-        <v>719.1944197946839</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E28" t="n">
-        <v>549.4364160454211</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F28" t="n">
-        <v>407.7542895545774</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G28" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H28" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6412,22 +6414,22 @@
         <v>2559.679081471576</v>
       </c>
       <c r="T28" t="n">
-        <v>2559.679081471576</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U28" t="n">
-        <v>2281.246080724681</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V28" t="n">
-        <v>1994.290572595111</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="W28" t="n">
-        <v>1722.264168181403</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X28" t="n">
-        <v>1476.872413514815</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y28" t="n">
-        <v>1249.452742828923</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="29">
@@ -6449,13 +6451,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F29" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G29" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H29" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I29" t="n">
         <v>102.2608402707796</v>
@@ -6464,19 +6466,19 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K29" t="n">
-        <v>102.2608402707796</v>
+        <v>775.0235620688169</v>
       </c>
       <c r="L29" t="n">
-        <v>1177.320806523639</v>
+        <v>1850.083528321676</v>
       </c>
       <c r="M29" t="n">
-        <v>2334.36864173419</v>
+        <v>3007.131363532227</v>
       </c>
       <c r="N29" t="n">
-        <v>3460.099625170637</v>
+        <v>4132.862346968674</v>
       </c>
       <c r="O29" t="n">
-        <v>4440.279291740943</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P29" t="n">
         <v>5113.04201353898</v>
@@ -6500,13 +6502,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W29" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X29" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y29" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="30">
@@ -6552,7 +6554,7 @@
         <v>1300.985674363279</v>
       </c>
       <c r="N30" t="n">
-        <v>1300.985674363279</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="O30" t="n">
         <v>1765.500601749588</v>
@@ -6595,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1141.396843814754</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C31" t="n">
-        <v>968.8351322979789</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D31" t="n">
-        <v>802.9571394995016</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="E31" t="n">
-        <v>633.1991357502388</v>
+        <v>448.0171411277256</v>
       </c>
       <c r="F31" t="n">
-        <v>456.4920817119951</v>
+        <v>271.3100870894817</v>
       </c>
       <c r="G31" t="n">
-        <v>290.9008067378227</v>
+        <v>105.7188121153094</v>
       </c>
       <c r="H31" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6646,25 +6648,25 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S31" t="n">
-        <v>2697.502628878951</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T31" t="n">
-        <v>2451.623182457406</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U31" t="n">
-        <v>2173.190181710511</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V31" t="n">
-        <v>1886.234673580942</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W31" t="n">
-        <v>1614.208269167233</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X31" t="n">
-        <v>1368.816514500646</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y31" t="n">
-        <v>1141.396843814754</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="32">
@@ -6686,13 +6688,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
@@ -6753,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>608.4325852620724</v>
+        <v>3955.973997051466</v>
       </c>
       <c r="C33" t="n">
-        <v>501.9761240987147</v>
+        <v>3849.517535888108</v>
       </c>
       <c r="D33" t="n">
-        <v>406.885835245268</v>
+        <v>3754.427247034661</v>
       </c>
       <c r="E33" t="n">
-        <v>312.7654205722217</v>
+        <v>3660.306832361615</v>
       </c>
       <c r="F33" t="n">
-        <v>229.3815821883833</v>
+        <v>3576.922993977777</v>
       </c>
       <c r="G33" t="n">
-        <v>143.9964924545671</v>
+        <v>3491.53790424396</v>
       </c>
       <c r="H33" t="n">
-        <v>102.2608402707796</v>
+        <v>3449.802252060173</v>
       </c>
       <c r="I33" t="n">
-        <v>128.3245134312372</v>
+        <v>3475.865925220631</v>
       </c>
       <c r="J33" t="n">
-        <v>452.8828383974496</v>
+        <v>3800.424250186843</v>
       </c>
       <c r="K33" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="L33" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="M33" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="N33" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="O33" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="P33" t="n">
-        <v>1107.588885023173</v>
+        <v>4455.130296812566</v>
       </c>
       <c r="Q33" t="n">
-        <v>1648.327823655249</v>
+        <v>4995.869235444641</v>
       </c>
       <c r="R33" t="n">
-        <v>1765.500601749588</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S33" t="n">
-        <v>1702.045164197971</v>
+        <v>5049.586575987364</v>
       </c>
       <c r="T33" t="n">
-        <v>1571.866520528573</v>
+        <v>4919.407932317966</v>
       </c>
       <c r="U33" t="n">
-        <v>1395.529973528541</v>
+        <v>4743.071385317934</v>
       </c>
       <c r="V33" t="n">
-        <v>1196.412455590541</v>
+        <v>4543.953867379933</v>
       </c>
       <c r="W33" t="n">
-        <v>1011.089701323735</v>
+        <v>4358.631113113128</v>
       </c>
       <c r="X33" t="n">
-        <v>856.2222655626148</v>
+        <v>4203.763677352008</v>
       </c>
       <c r="Y33" t="n">
-        <v>729.7364863418355</v>
+        <v>4077.277898131229</v>
       </c>
     </row>
     <row r="34">
@@ -6832,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1181.319000882661</v>
+        <v>790.3368563937634</v>
       </c>
       <c r="C34" t="n">
-        <v>1008.757289365886</v>
+        <v>617.7751448769883</v>
       </c>
       <c r="D34" t="n">
-        <v>842.8792965674086</v>
+        <v>451.897152078511</v>
       </c>
       <c r="E34" t="n">
-        <v>673.1212928181459</v>
+        <v>282.1391483292483</v>
       </c>
       <c r="F34" t="n">
-        <v>496.4142387799021</v>
+        <v>105.4320942910045</v>
       </c>
       <c r="G34" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H34" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I34" t="n">
         <v>102.2608402707796</v>
@@ -6880,28 +6882,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S34" t="n">
-        <v>2559.679081471576</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T34" t="n">
-        <v>2313.799635050031</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U34" t="n">
-        <v>2313.799635050031</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V34" t="n">
-        <v>2117.975449367836</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W34" t="n">
-        <v>1845.949044954127</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X34" t="n">
-        <v>1600.55729028754</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y34" t="n">
-        <v>1373.137619601648</v>
+        <v>982.1554751127505</v>
       </c>
     </row>
     <row r="35">
@@ -6923,13 +6925,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6938,19 +6940,19 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>936.6111322289576</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="L35" t="n">
-        <v>2011.671098481817</v>
+        <v>1177.320806523639</v>
       </c>
       <c r="M35" t="n">
-        <v>3168.718933692368</v>
+        <v>2334.36864173419</v>
       </c>
       <c r="N35" t="n">
-        <v>3304.552472135278</v>
+        <v>3460.099625170637</v>
       </c>
       <c r="O35" t="n">
-        <v>4284.732138705584</v>
+        <v>4440.279291740943</v>
       </c>
       <c r="P35" t="n">
         <v>5113.04201353898</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3462.891420506061</v>
+        <v>1015.727725908489</v>
       </c>
       <c r="C37" t="n">
-        <v>3290.329708989286</v>
+        <v>843.1660143917135</v>
       </c>
       <c r="D37" t="n">
-        <v>3124.451716190809</v>
+        <v>677.2880215932362</v>
       </c>
       <c r="E37" t="n">
-        <v>2954.693712441546</v>
+        <v>507.5300178439735</v>
       </c>
       <c r="F37" t="n">
-        <v>2777.986658403302</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="G37" t="n">
-        <v>2612.39538342913</v>
+        <v>330.8229638057297</v>
       </c>
       <c r="H37" t="n">
-        <v>2496.382403636182</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I37" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J37" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K37" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L37" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M37" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N37" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O37" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P37" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q37" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>5091.624192244353</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>4932.38282354235</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T37" t="n">
-        <v>4686.503377120805</v>
+        <v>2517.772683270128</v>
       </c>
       <c r="U37" t="n">
-        <v>4686.503377120805</v>
+        <v>2239.339682523233</v>
       </c>
       <c r="V37" t="n">
-        <v>4399.547868991236</v>
+        <v>1952.384174393663</v>
       </c>
       <c r="W37" t="n">
-        <v>4127.521464577528</v>
+        <v>1680.357769979955</v>
       </c>
       <c r="X37" t="n">
-        <v>3882.12970991094</v>
+        <v>1434.966015313368</v>
       </c>
       <c r="Y37" t="n">
-        <v>3654.710039225049</v>
+        <v>1207.546344627476</v>
       </c>
     </row>
     <row r="38">
@@ -7160,40 +7162,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771597</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004232</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
-        <v>102.6776296436392</v>
+        <v>102.6776296436396</v>
       </c>
       <c r="I38" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>537.5155277236975</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="K38" t="n">
-        <v>1371.865819681875</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L38" t="n">
-        <v>2446.925785934734</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M38" t="n">
-        <v>2446.925785934734</v>
+        <v>3168.718933692368</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423627</v>
+        <v>4294.449917128814</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993933</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="P38" t="n">
-        <v>4397.38916282733</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785924</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="R38" t="n">
         <v>5113.04201353898</v>
@@ -7248,28 +7250,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I39" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J39" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N39" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O39" t="n">
-        <v>828.6046571760505</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P39" t="n">
-        <v>1648.327823655249</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q39" t="n">
         <v>1648.327823655249</v>
@@ -7306,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1181.319000882661</v>
+        <v>3365.117609755799</v>
       </c>
       <c r="C40" t="n">
-        <v>1008.757289365886</v>
+        <v>3192.555898239023</v>
       </c>
       <c r="D40" t="n">
-        <v>842.8792965674086</v>
+        <v>3026.677905440546</v>
       </c>
       <c r="E40" t="n">
-        <v>673.1212928181459</v>
+        <v>2856.919901691283</v>
       </c>
       <c r="F40" t="n">
-        <v>496.4142387799021</v>
+        <v>2680.21284765304</v>
       </c>
       <c r="G40" t="n">
-        <v>330.8229638057298</v>
+        <v>2514.621572678867</v>
       </c>
       <c r="H40" t="n">
-        <v>190.9207894961043</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="I40" t="n">
-        <v>102.2608402707796</v>
+        <v>2496.382403636182</v>
       </c>
       <c r="J40" t="n">
-        <v>188.8405254354695</v>
+        <v>2582.962088800872</v>
       </c>
       <c r="K40" t="n">
-        <v>463.598980006605</v>
+        <v>2857.720543372007</v>
       </c>
       <c r="L40" t="n">
-        <v>881.8088617745661</v>
+        <v>3275.930425139968</v>
       </c>
       <c r="M40" t="n">
-        <v>1341.292728955479</v>
+        <v>3735.414292320881</v>
       </c>
       <c r="N40" t="n">
-        <v>1783.551532113124</v>
+        <v>4177.673095478525</v>
       </c>
       <c r="O40" t="n">
-        <v>2203.220781338905</v>
+        <v>4597.342344704308</v>
       </c>
       <c r="P40" t="n">
-        <v>2550.727675309247</v>
+        <v>4944.849238674649</v>
       </c>
       <c r="Q40" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="R40" t="n">
-        <v>2718.920450173579</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S40" t="n">
-        <v>2559.679081471576</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="T40" t="n">
-        <v>2313.799635050031</v>
+        <v>4867.162567117437</v>
       </c>
       <c r="U40" t="n">
-        <v>2313.799635050031</v>
+        <v>4588.729566370543</v>
       </c>
       <c r="V40" t="n">
-        <v>2026.844126920461</v>
+        <v>4301.774058240973</v>
       </c>
       <c r="W40" t="n">
-        <v>1845.949044954127</v>
+        <v>4029.747653827265</v>
       </c>
       <c r="X40" t="n">
-        <v>1600.55729028754</v>
+        <v>3784.355899160677</v>
       </c>
       <c r="Y40" t="n">
-        <v>1373.137619601648</v>
+        <v>3556.936228474786</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7387,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1255.386822367965</v>
+        <v>2519.992517327003</v>
       </c>
       <c r="C41" t="n">
-        <v>817.244349551388</v>
+        <v>2081.850044510426</v>
       </c>
       <c r="D41" t="n">
-        <v>817.244349551388</v>
+        <v>1645.940259684871</v>
       </c>
       <c r="E41" t="n">
-        <v>773.5407731772136</v>
+        <v>1212.165514843166</v>
       </c>
       <c r="F41" t="n">
-        <v>345.6733435864214</v>
+        <v>784.2980852523735</v>
       </c>
       <c r="G41" t="n">
-        <v>345.6733435864214</v>
+        <v>382.9002538756374</v>
       </c>
       <c r="H41" t="n">
-        <v>56.54318902963762</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I41" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J41" t="n">
-        <v>56.12639965677763</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K41" t="n">
-        <v>750.6905954094008</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="L41" t="n">
-        <v>1396.102936374607</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="M41" t="n">
-        <v>1396.102936374607</v>
+        <v>1686.072621982323</v>
       </c>
       <c r="N41" t="n">
-        <v>2090.66713212723</v>
+        <v>2811.80360541877</v>
       </c>
       <c r="O41" t="n">
-        <v>2090.66713212723</v>
+        <v>3144.542240397635</v>
       </c>
       <c r="P41" t="n">
-        <v>2090.66713212723</v>
+        <v>3972.852115231031</v>
       </c>
       <c r="Q41" t="n">
-        <v>2637.165918085825</v>
+        <v>4519.350901189626</v>
       </c>
       <c r="R41" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="S41" t="n">
-        <v>2722.668109022718</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="T41" t="n">
-        <v>2722.668109022718</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="U41" t="n">
-        <v>2463.445806339735</v>
+        <v>4429.282663259699</v>
       </c>
       <c r="V41" t="n">
-        <v>2100.828856273562</v>
+        <v>4178.576129521913</v>
       </c>
       <c r="W41" t="n">
-        <v>2100.828856273562</v>
+        <v>3773.720674932946</v>
       </c>
       <c r="X41" t="n">
-        <v>1681.686392852872</v>
+        <v>3354.578211512257</v>
       </c>
       <c r="Y41" t="n">
-        <v>1681.686392852872</v>
+        <v>2946.29208781191</v>
       </c>
     </row>
     <row r="42">
@@ -7464,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>562.2981446480704</v>
+        <v>599.9418443101464</v>
       </c>
       <c r="C42" t="n">
-        <v>455.8416834847127</v>
+        <v>493.4853831467887</v>
       </c>
       <c r="D42" t="n">
-        <v>360.751394631266</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E42" t="n">
-        <v>266.6309799582197</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F42" t="n">
-        <v>183.2471415743813</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G42" t="n">
-        <v>97.86205184056516</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H42" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I42" t="n">
-        <v>56.12639965677763</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J42" t="n">
-        <v>56.12639965677763</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K42" t="n">
-        <v>56.12639965677763</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="L42" t="n">
-        <v>56.12639965677763</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="M42" t="n">
-        <v>750.6905954094008</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N42" t="n">
-        <v>1445.254791162024</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O42" t="n">
-        <v>1602.193383041247</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P42" t="n">
-        <v>1602.193383041247</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q42" t="n">
-        <v>1602.193383041247</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R42" t="n">
-        <v>1719.366161135586</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="S42" t="n">
-        <v>1655.910723583969</v>
+        <v>1693.554423246045</v>
       </c>
       <c r="T42" t="n">
-        <v>1525.732079914571</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U42" t="n">
-        <v>1349.395532914539</v>
+        <v>1387.039232576615</v>
       </c>
       <c r="V42" t="n">
-        <v>1150.278014976539</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W42" t="n">
-        <v>964.9552607097328</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X42" t="n">
-        <v>810.0878249486128</v>
+        <v>847.7315246106888</v>
       </c>
       <c r="Y42" t="n">
-        <v>683.6020457278336</v>
+        <v>721.2457453899095</v>
       </c>
     </row>
     <row r="43">
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1096.156822031188</v>
+        <v>944.2661363957848</v>
       </c>
       <c r="C43" t="n">
-        <v>1096.156822031188</v>
+        <v>771.7044248790097</v>
       </c>
       <c r="D43" t="n">
-        <v>930.2788292327109</v>
+        <v>605.8264320805324</v>
       </c>
       <c r="E43" t="n">
-        <v>760.5208254834481</v>
+        <v>436.0684283312697</v>
       </c>
       <c r="F43" t="n">
-        <v>583.8137714452043</v>
+        <v>259.361374293026</v>
       </c>
       <c r="G43" t="n">
-        <v>418.2224964710319</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="H43" t="n">
-        <v>278.3203221614065</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I43" t="n">
-        <v>189.6603729360818</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J43" t="n">
-        <v>276.2400581007717</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K43" t="n">
-        <v>550.9985126719073</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L43" t="n">
-        <v>969.2083944398684</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M43" t="n">
-        <v>1428.692261620781</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N43" t="n">
-        <v>1870.951064778426</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O43" t="n">
-        <v>2290.620314004207</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P43" t="n">
-        <v>2638.127207974549</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q43" t="n">
-        <v>2806.319982838882</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R43" t="n">
-        <v>2806.319982838882</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S43" t="n">
-        <v>2806.319982838882</v>
+        <v>2692.190540178969</v>
       </c>
       <c r="T43" t="n">
-        <v>2560.440536417337</v>
+        <v>2446.311093757424</v>
       </c>
       <c r="U43" t="n">
-        <v>2282.007535670442</v>
+        <v>2167.878093010529</v>
       </c>
       <c r="V43" t="n">
-        <v>2032.813270516363</v>
+        <v>1880.92258488096</v>
       </c>
       <c r="W43" t="n">
-        <v>1760.786866102655</v>
+        <v>1608.896180467251</v>
       </c>
       <c r="X43" t="n">
-        <v>1515.395111436067</v>
+        <v>1363.504425800664</v>
       </c>
       <c r="Y43" t="n">
-        <v>1287.975440750175</v>
+        <v>1136.084755114772</v>
       </c>
     </row>
     <row r="44">
@@ -7622,76 +7624,76 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1759.443918266438</v>
+        <v>2104.363000055491</v>
       </c>
       <c r="C44" t="n">
-        <v>1321.301445449862</v>
+        <v>1666.220527238914</v>
       </c>
       <c r="D44" t="n">
-        <v>885.391660624306</v>
+        <v>1230.310742413359</v>
       </c>
       <c r="E44" t="n">
-        <v>885.391660624306</v>
+        <v>796.5359975716538</v>
       </c>
       <c r="F44" t="n">
-        <v>457.5242310335137</v>
+        <v>368.6685679808615</v>
       </c>
       <c r="G44" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="H44" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I44" t="n">
-        <v>56.12639965677763</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J44" t="n">
-        <v>56.12639965677763</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K44" t="n">
-        <v>56.12639965677763</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L44" t="n">
-        <v>56.12639965677763</v>
+        <v>2164.362573827329</v>
       </c>
       <c r="M44" t="n">
-        <v>750.6905954094008</v>
+        <v>2164.362573827329</v>
       </c>
       <c r="N44" t="n">
-        <v>1445.254791162024</v>
+        <v>2164.362573827329</v>
       </c>
       <c r="O44" t="n">
-        <v>2139.818986914647</v>
+        <v>3144.542240397635</v>
       </c>
       <c r="P44" t="n">
-        <v>2259.821196880287</v>
+        <v>3972.852115231031</v>
       </c>
       <c r="Q44" t="n">
-        <v>2806.319982838882</v>
+        <v>4519.350901189626</v>
       </c>
       <c r="R44" t="n">
-        <v>2806.319982838882</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="S44" t="n">
-        <v>2722.668109022718</v>
+        <v>4604.853092126519</v>
       </c>
       <c r="T44" t="n">
-        <v>2502.600881895757</v>
+        <v>4384.785864999558</v>
       </c>
       <c r="U44" t="n">
-        <v>2243.378579212774</v>
+        <v>4125.563562316574</v>
       </c>
       <c r="V44" t="n">
-        <v>2164.299372855405</v>
+        <v>3762.946612250401</v>
       </c>
       <c r="W44" t="n">
-        <v>1759.443918266438</v>
+        <v>3358.091157661434</v>
       </c>
       <c r="X44" t="n">
-        <v>1759.443918266438</v>
+        <v>2938.948694240745</v>
       </c>
       <c r="Y44" t="n">
-        <v>1759.443918266438</v>
+        <v>2530.662570540399</v>
       </c>
     </row>
     <row r="45">
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>1649.251966351366</v>
+        <v>599.9418443101464</v>
       </c>
       <c r="C45" t="n">
-        <v>1542.795505188008</v>
+        <v>493.4853831467887</v>
       </c>
       <c r="D45" t="n">
-        <v>1447.705216334561</v>
+        <v>398.395094293342</v>
       </c>
       <c r="E45" t="n">
-        <v>1353.584801661515</v>
+        <v>304.2746796202957</v>
       </c>
       <c r="F45" t="n">
-        <v>1270.200963277676</v>
+        <v>220.8908412364573</v>
       </c>
       <c r="G45" t="n">
-        <v>1184.81587354386</v>
+        <v>135.5057515026412</v>
       </c>
       <c r="H45" t="n">
-        <v>1143.080221360073</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I45" t="n">
-        <v>1169.14389452053</v>
+        <v>119.8337724793113</v>
       </c>
       <c r="J45" t="n">
-        <v>1493.702219486743</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="K45" t="n">
-        <v>2148.408266112466</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="L45" t="n">
-        <v>2148.408266112466</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="M45" t="n">
-        <v>2148.408266112466</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="N45" t="n">
-        <v>2148.408266112466</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="O45" t="n">
-        <v>2148.408266112466</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="P45" t="n">
-        <v>2148.408266112466</v>
+        <v>1099.098144071247</v>
       </c>
       <c r="Q45" t="n">
-        <v>2689.147204744542</v>
+        <v>1639.837082703323</v>
       </c>
       <c r="R45" t="n">
-        <v>2806.319982838882</v>
+        <v>1757.009860797662</v>
       </c>
       <c r="S45" t="n">
-        <v>2742.864545287265</v>
+        <v>1693.554423246045</v>
       </c>
       <c r="T45" t="n">
-        <v>2612.685901617866</v>
+        <v>1563.375779576647</v>
       </c>
       <c r="U45" t="n">
-        <v>2436.349354617835</v>
+        <v>1387.039232576615</v>
       </c>
       <c r="V45" t="n">
-        <v>2237.231836679834</v>
+        <v>1187.921714638615</v>
       </c>
       <c r="W45" t="n">
-        <v>2051.909082413028</v>
+        <v>1002.598960371809</v>
       </c>
       <c r="X45" t="n">
-        <v>1897.041646651908</v>
+        <v>847.7315246106888</v>
       </c>
       <c r="Y45" t="n">
-        <v>1770.555867431129</v>
+        <v>721.2457453899095</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>959.058355489075</v>
+        <v>781.8461154418378</v>
       </c>
       <c r="C46" t="n">
-        <v>786.4966439722999</v>
+        <v>609.2844039250627</v>
       </c>
       <c r="D46" t="n">
-        <v>620.6186511738226</v>
+        <v>609.2844039250627</v>
       </c>
       <c r="E46" t="n">
-        <v>620.6186511738226</v>
+        <v>439.5264001758</v>
       </c>
       <c r="F46" t="n">
-        <v>443.9115971355788</v>
+        <v>262.8193461375562</v>
       </c>
       <c r="G46" t="n">
-        <v>278.3203221614065</v>
+        <v>97.22807116338385</v>
       </c>
       <c r="H46" t="n">
-        <v>278.3203221614065</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="I46" t="n">
-        <v>189.6603729360818</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="J46" t="n">
-        <v>276.2400581007717</v>
+        <v>180.3497844835435</v>
       </c>
       <c r="K46" t="n">
-        <v>550.9985126719073</v>
+        <v>455.1082390546791</v>
       </c>
       <c r="L46" t="n">
-        <v>969.2083944398684</v>
+        <v>873.3181208226401</v>
       </c>
       <c r="M46" t="n">
-        <v>1428.692261620781</v>
+        <v>1332.801988003553</v>
       </c>
       <c r="N46" t="n">
-        <v>1870.951064778426</v>
+        <v>1775.060791161198</v>
       </c>
       <c r="O46" t="n">
-        <v>2290.620314004207</v>
+        <v>2194.730040386979</v>
       </c>
       <c r="P46" t="n">
-        <v>2638.127207974549</v>
+        <v>2542.236934357321</v>
       </c>
       <c r="Q46" t="n">
-        <v>2806.319982838882</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="R46" t="n">
-        <v>2784.902161544253</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="S46" t="n">
-        <v>2625.66079284225</v>
+        <v>2529.770519225022</v>
       </c>
       <c r="T46" t="n">
-        <v>2379.781346420705</v>
+        <v>2283.891072803477</v>
       </c>
       <c r="U46" t="n">
-        <v>2101.34834567381</v>
+        <v>2005.458072056582</v>
       </c>
       <c r="V46" t="n">
-        <v>1814.392837544241</v>
+        <v>1718.502563927013</v>
       </c>
       <c r="W46" t="n">
-        <v>1542.366433130532</v>
+        <v>1446.476159513304</v>
       </c>
       <c r="X46" t="n">
-        <v>1296.974678463945</v>
+        <v>1201.084404846717</v>
       </c>
       <c r="Y46" t="n">
-        <v>1069.555007778053</v>
+        <v>973.664734160825</v>
       </c>
     </row>
   </sheetData>
@@ -7976,25 +7978,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>585.1784344521124</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157522</v>
@@ -8052,7 +8054,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -8061,7 +8063,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>321.6407242930886</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8073,10 +8075,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q3" t="n">
-        <v>546.2009481132077</v>
+        <v>226.6534083847598</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8213,13 +8215,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>439.6511994473918</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8237,7 +8239,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,7 +8294,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8304,16 +8306,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>200.3264657984394</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>540.0049805212334</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8450,10 +8452,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>585.1784344521124</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8462,7 +8464,7 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O8" t="n">
         <v>667.515206607857</v>
@@ -8526,10 +8528,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -8541,19 +8543,19 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="O9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>466.3240083888435</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8690,7 +8692,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>701.5799957097204</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -8699,13 +8701,13 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>809.0782778761404</v>
       </c>
       <c r="O11" t="n">
-        <v>212.2804580932202</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P11" t="n">
-        <v>701.5799957097204</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157522</v>
@@ -8766,28 +8768,28 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>132.1968875947123</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -8924,31 +8926,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>333.6730111621152</v>
       </c>
       <c r="K14" t="n">
-        <v>701.5799957097204</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>502.3706375466439</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>701.5799957097204</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>701.5799957097204</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9161,19 +9163,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9182,10 +9184,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
-        <v>552.0189757157522</v>
+        <v>86.02274874679097</v>
       </c>
       <c r="R17" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9398,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>842.7780726850283</v>
@@ -9407,22 +9409,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O20" t="n">
-        <v>990.0804712831379</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9635,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>842.7780726850283</v>
@@ -9644,22 +9646,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O23" t="n">
-        <v>990.0804712831379</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9711,16 +9713,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9729,16 +9731,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>715.8552653209142</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9872,31 +9874,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850283</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>548.405358162976</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9948,13 +9950,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9963,7 +9965,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>992.4305468772036</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -9972,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10112,7 +10114,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -10127,7 +10129,7 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>679.5583048465023</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -10200,10 +10202,10 @@
         <v>1210.83316575</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O30" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -10586,7 +10588,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
@@ -10595,13 +10597,13 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>137.2055943867781</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458549</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -10671,7 +10673,7 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>433.7499898166688</v>
+        <v>433.7499898166689</v>
       </c>
       <c r="N36" t="n">
         <v>1246.290173293239</v>
@@ -10820,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>842.7780726850283</v>
@@ -10829,22 +10831,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O38" t="n">
-        <v>990.0804712831379</v>
+        <v>826.8607034446122</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458549</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157522</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10896,13 +10898,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10914,13 +10916,13 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>733.6806231366373</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -11057,25 +11059,25 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>651.931657540612</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>701.5799957097204</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>336.0996312917832</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157522</v>
@@ -11133,31 +11135,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>701.5799957097205</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>158.523830181033</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -11294,31 +11296,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>809.0782778761404</v>
       </c>
       <c r="M44" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>701.5799957097205</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>701.5799957097202</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P44" t="n">
-        <v>121.2143535006462</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -11376,7 +11378,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158822</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -23255,16 +23257,16 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>111.2039336442349</v>
       </c>
       <c r="C11" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23273,10 +23275,10 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23312,10 +23314,10 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>108.7836298432844</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23419,13 +23421,13 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>54.79268646174564</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>22.86827275269451</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23492,16 +23494,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>290.5480923611298</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -23510,10 +23512,10 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,22 +23545,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>125.6469905667125</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23662,16 +23664,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>160.7958207444075</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,7 +23703,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23710,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>4.277894049991801</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23719,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -23905,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,13 +23940,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627208</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24139,7 +24141,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>138.5031525665292</v>
@@ -24175,7 +24177,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24376,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>135.3636110865066</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,19 +24411,19 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>81.78272691405309</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24610,7 +24612,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>34.67467827192613</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24652,16 +24654,16 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>81.78272691405297</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,13 +24837,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24853,10 +24855,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>39.52293549722799</v>
+        <v>135.0797604404447</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25087,13 +25089,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>160.795820744408</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25129,10 +25131,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>90.22000922290115</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25324,13 +25326,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>23.65030257151066</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,16 +25359,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>44.28436272291265</v>
       </c>
       <c r="U37" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25564,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>120.4463752142708</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,19 +25599,19 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>90.22000922290104</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25631,22 +25633,22 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>386.1704567828551</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25676,7 +25678,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T41" t="n">
         <v>217.8665548556918</v>
@@ -25685,16 +25687,16 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>110.7913121651034</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
       </c>
       <c r="Y41" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -25786,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25801,10 +25803,10 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,7 +25836,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>139.5921776627253</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25843,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>37.38363054573591</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25862,7 +25864,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
@@ -25871,13 +25873,13 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>125.2343690875809</v>
       </c>
       <c r="H44" t="n">
         <v>286.2388530112159</v>
@@ -25922,16 +25924,16 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>280.7023662717164</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26020,16 +26022,16 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>80.50874676570891</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -26038,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>138.5031525665292</v>
+        <v>135.0797604404443</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>410624.2705798987</v>
+        <v>581787.9349303537</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>410624.2705798987</v>
+        <v>581787.9349303535</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>620394.8292427701</v>
+        <v>620394.8292427703</v>
       </c>
     </row>
     <row r="8">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>410624.2705798986</v>
+        <v>581787.9349303537</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>410624.2705798986</v>
+        <v>581787.9349303537</v>
       </c>
     </row>
   </sheetData>
@@ -26314,25 +26316,25 @@
         <v>375303.123923286</v>
       </c>
       <c r="C2" t="n">
-        <v>375303.123923286</v>
+        <v>375303.1239232861</v>
       </c>
       <c r="D2" t="n">
         <v>375303.123923286</v>
       </c>
       <c r="E2" t="n">
-        <v>244099.9677817452</v>
+        <v>345850.0296919845</v>
       </c>
       <c r="F2" t="n">
-        <v>244099.9677817453</v>
+        <v>345850.0296919845</v>
       </c>
       <c r="G2" t="n">
+        <v>368800.3088961467</v>
+      </c>
+      <c r="H2" t="n">
+        <v>368800.3088961467</v>
+      </c>
+      <c r="I2" t="n">
         <v>368800.3088961466</v>
-      </c>
-      <c r="H2" t="n">
-        <v>368800.3088961466</v>
-      </c>
-      <c r="I2" t="n">
-        <v>368800.3088961467</v>
       </c>
       <c r="J2" t="n">
         <v>368800.3088961467</v>
@@ -26341,7 +26343,7 @@
         <v>368800.3088961466</v>
       </c>
       <c r="L2" t="n">
-        <v>368800.3088961467</v>
+        <v>368800.3088961466</v>
       </c>
       <c r="M2" t="n">
         <v>368800.3088961467</v>
@@ -26350,10 +26352,10 @@
         <v>368800.3088961466</v>
       </c>
       <c r="O2" t="n">
-        <v>244099.9677817453</v>
+        <v>345850.0296919845</v>
       </c>
       <c r="P2" t="n">
-        <v>244099.9677817453</v>
+        <v>345850.0296919845</v>
       </c>
     </row>
     <row r="3">
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>223699.6985840448</v>
+        <v>223699.6985840449</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>10170.99660045619</v>
+        <v>150665.7535717478</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>158059.4769461092</v>
+        <v>29089.80917260791</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>174651.3487177061</v>
+        <v>174651.3487177062</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>8489.081703340786</v>
+        <v>125751.0883356906</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,19 +26426,19 @@
         <v>156636.6412526738</v>
       </c>
       <c r="E4" t="n">
-        <v>45008.0107341682</v>
+        <v>63769.04507708549</v>
       </c>
       <c r="F4" t="n">
-        <v>45008.0107341682</v>
+        <v>63769.04507708547</v>
       </c>
       <c r="G4" t="n">
+        <v>68000.69828933281</v>
+      </c>
+      <c r="H4" t="n">
         <v>68000.69828933282</v>
       </c>
-      <c r="H4" t="n">
-        <v>68000.69828933281</v>
-      </c>
       <c r="I4" t="n">
-        <v>68000.69828933281</v>
+        <v>68000.69828933279</v>
       </c>
       <c r="J4" t="n">
         <v>68000.69828933279</v>
@@ -26445,19 +26447,19 @@
         <v>68000.69828933279</v>
       </c>
       <c r="L4" t="n">
-        <v>68000.69828933279</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="M4" t="n">
-        <v>68000.69828933279</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="N4" t="n">
         <v>68000.69828933281</v>
       </c>
       <c r="O4" t="n">
-        <v>45008.0107341682</v>
+        <v>63769.04507708548</v>
       </c>
       <c r="P4" t="n">
-        <v>45008.0107341682</v>
+        <v>63769.04507708547</v>
       </c>
     </row>
     <row r="5">
@@ -26467,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>74212.5245617577</v>
+        <v>74212.52456175772</v>
       </c>
       <c r="C5" t="n">
         <v>74212.5245617577</v>
@@ -26476,10 +26478,10 @@
         <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>42656.063739151</v>
+        <v>71265.27548232877</v>
       </c>
       <c r="F5" t="n">
-        <v>42656.063739151</v>
+        <v>71265.27548232877</v>
       </c>
       <c r="G5" t="n">
         <v>77718.23860579252</v>
@@ -26500,16 +26502,16 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.23860579252</v>
+        <v>77718.2386057925</v>
       </c>
       <c r="N5" t="n">
         <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
-        <v>42656.063739151</v>
+        <v>71265.27548232877</v>
       </c>
       <c r="P5" t="n">
-        <v>42656.063739151</v>
+        <v>71265.27548232877</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-79245.74047519038</v>
+        <v>-79245.74047519034</v>
       </c>
       <c r="C6" t="n">
-        <v>144453.9581088545</v>
+        <v>144453.9581088546</v>
       </c>
       <c r="D6" t="n">
         <v>144453.9581088545</v>
       </c>
       <c r="E6" t="n">
-        <v>146264.8967079698</v>
+        <v>60149.95556082245</v>
       </c>
       <c r="F6" t="n">
-        <v>156435.8933084261</v>
+        <v>210815.7091325702</v>
       </c>
       <c r="G6" t="n">
-        <v>65021.89505491202</v>
+        <v>193991.5628284135</v>
       </c>
       <c r="H6" t="n">
+        <v>223081.3720010214</v>
+      </c>
+      <c r="I6" t="n">
         <v>223081.3720010213</v>
       </c>
-      <c r="I6" t="n">
-        <v>223081.3720010214</v>
-      </c>
       <c r="J6" t="n">
-        <v>48430.02328331527</v>
+        <v>48430.02328331518</v>
       </c>
       <c r="K6" t="n">
         <v>223081.3720010213</v>
       </c>
       <c r="L6" t="n">
-        <v>223081.3720010214</v>
+        <v>223081.3720010213</v>
       </c>
       <c r="M6" t="n">
-        <v>214592.2902976805</v>
+        <v>97330.2836653308</v>
       </c>
       <c r="N6" t="n">
         <v>223081.3720010213</v>
       </c>
       <c r="O6" t="n">
-        <v>156435.8933084261</v>
+        <v>210815.7091325702</v>
       </c>
       <c r="P6" t="n">
-        <v>156435.8933084261</v>
+        <v>210815.7091325703</v>
       </c>
     </row>
   </sheetData>
@@ -26787,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="C4" t="n">
         <v>667.515206607857</v>
@@ -26796,10 +26798,10 @@
         <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>701.5799957097204</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="F4" t="n">
-        <v>701.5799957097204</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="G4" t="n">
         <v>1278.260503384745</v>
@@ -26826,10 +26828,10 @@
         <v>1278.260503384745</v>
       </c>
       <c r="O4" t="n">
-        <v>701.5799957097204</v>
+        <v>1172.126241485671</v>
       </c>
       <c r="P4" t="n">
-        <v>701.5799957097204</v>
+        <v>1172.126241485671</v>
       </c>
     </row>
   </sheetData>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,13 +27020,13 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>34.06478910186348</v>
+        <v>504.6110348778134</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>576.680507675025</v>
+        <v>106.1342618990748</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>34.06478910186348</v>
+        <v>504.6110348778132</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,13 +27266,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>34.06478910186348</v>
+        <v>504.6110348778134</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>576.680507675025</v>
+        <v>106.1342618990748</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27379,16 +27381,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="n">
+        <v>52.65760510107418</v>
+      </c>
+      <c r="E2" t="n">
         <v>400</v>
       </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0</v>
-      </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
@@ -27433,7 +27435,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
@@ -27442,10 +27444,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>309.2876847572281</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27549,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>160.7958207444076</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,13 +27584,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -27613,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>328.833030588585</v>
+      </c>
+      <c r="E5" t="n">
         <v>400</v>
       </c>
-      <c r="C5" t="n">
-        <v>0</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>326.6295051306851</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27676,10 +27678,10 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27783,10 +27785,10 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27822,13 +27824,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>223.1369608195774</v>
+        <v>54.4833845311633</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27850,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>86.14502017843148</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D8" t="n">
         <v>400</v>
@@ -27868,10 +27870,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>113.1238041695736</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -28020,16 +28022,16 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>122.9308428424048</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>23.65030257151109</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28065,7 +28067,7 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28074,7 +28076,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -34696,25 +34698,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>145.5272350047208</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>585.1784344521124</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157523</v>
@@ -34772,7 +34774,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.3269425863208</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -34781,7 +34783,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>321.6407242930886</v>
+        <v>667.5152066078571</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34793,10 +34795,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>667.515206607857</v>
+        <v>667.5152066078572</v>
       </c>
       <c r="Q3" t="n">
-        <v>546.2009481132077</v>
+        <v>226.6534083847598</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34863,19 +34865,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645585</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512941</v>
       </c>
       <c r="P4" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821543</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,13 +34935,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>439.6511994473918</v>
+        <v>88.52591951400984</v>
       </c>
       <c r="K5" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34957,7 +34959,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,7 +35014,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -35024,16 +35026,16 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>200.3264657984394</v>
+        <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>540.0049805212334</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35170,10 +35172,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>585.1784344521124</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35182,7 +35184,7 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="O8" t="n">
         <v>667.515206607857</v>
@@ -35246,10 +35248,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -35261,19 +35263,19 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="O9" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>466.3240083888435</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35410,7 +35412,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
-        <v>701.5799957097204</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
@@ -35419,19 +35421,19 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>809.0782778761404</v>
       </c>
       <c r="O11" t="n">
-        <v>212.2804580932202</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>701.5799957097204</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35483,31 +35485,31 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>132.1968875947123</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R12" t="n">
         <v>118.3563415094341</v>
@@ -35565,13 +35567,13 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M13" t="n">
         <v>464.1251183645586</v>
@@ -35580,7 +35582,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35644,31 +35646,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>333.6730111621152</v>
       </c>
       <c r="K14" t="n">
-        <v>701.5799957097204</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M14" t="n">
-        <v>502.3706375466439</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>701.5799957097204</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>701.5799957097204</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J15" t="n">
         <v>327.836691885063</v>
@@ -35802,13 +35804,13 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M16" t="n">
         <v>464.1251183645586</v>
@@ -35881,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N17" t="n">
-        <v>143.4079146352456</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O17" t="n">
-        <v>990.0804712831377</v>
+        <v>990.0804712831382</v>
       </c>
       <c r="P17" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
-        <v>552.0189757157523</v>
+        <v>86.02274874679097</v>
       </c>
       <c r="R17" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36039,13 +36041,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K19" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M19" t="n">
         <v>464.1251183645586</v>
@@ -36054,13 +36056,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q19" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O20" t="n">
-        <v>990.0804712831377</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632081</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J21" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K21" t="n">
         <v>661.3192390158824</v>
@@ -36218,7 +36220,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132077</v>
+        <v>546.2009481132072</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -36355,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>143.4079146352447</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O23" t="n">
-        <v>990.0804712831377</v>
+        <v>826.8607034446131</v>
       </c>
       <c r="P23" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,16 +36433,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>661.3192390158824</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>964.1848977889938</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -36449,16 +36451,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>715.8552653209142</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36592,31 +36594,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>842.7780726850282</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N26" t="n">
         <v>1137.102003471159</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>548.405358162976</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>327.836691885063</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>661.3192390158824</v>
+        <v>687.6096162327044</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36683,7 +36685,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>992.4305468772036</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36692,10 +36694,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>546.2009481132077</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>118.3563415094341</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36832,7 +36834,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
@@ -36847,7 +36849,7 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>679.5583048465023</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>0</v>
@@ -36920,10 +36922,10 @@
         <v>1210.83316575</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>469.2069973599082</v>
       </c>
       <c r="O30" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37142,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.32694258632081</v>
+        <v>26.32694258632091</v>
       </c>
       <c r="J33" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K33" t="n">
         <v>661.3192390158824</v>
@@ -37166,7 +37168,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132077</v>
+        <v>546.2009481132072</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -37306,7 +37308,7 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>842.7780726850283</v>
+        <v>0</v>
       </c>
       <c r="L35" t="n">
         <v>1085.919157831171</v>
@@ -37315,13 +37317,13 @@
         <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>137.2055943867781</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458546</v>
+        <v>679.5583048465023</v>
       </c>
       <c r="Q35" t="n">
         <v>0</v>
@@ -37391,7 +37393,7 @@
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>433.7499898166688</v>
+        <v>433.7499898166689</v>
       </c>
       <c r="N36" t="n">
         <v>1246.290173293239</v>
@@ -37461,13 +37463,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K37" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L37" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M37" t="n">
         <v>464.1251183645586</v>
@@ -37476,13 +37478,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P37" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q37" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471158</v>
       </c>
       <c r="O38" t="n">
-        <v>990.0804712831377</v>
+        <v>826.8607034446122</v>
       </c>
       <c r="P38" t="n">
-        <v>836.6766412458546</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
-        <v>552.0189757157523</v>
+        <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,13 +37618,13 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -37634,13 +37636,13 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>733.6806231366373</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>828.0031984638366</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R39" t="n">
         <v>118.3563415094341</v>
@@ -37698,13 +37700,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960966</v>
+        <v>277.5337924960963</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M40" t="n">
         <v>464.1251183645586</v>
@@ -37713,13 +37715,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37777,31 +37779,31 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>651.931657540612</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N41" t="n">
-        <v>701.5799957097204</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O41" t="n">
-        <v>0</v>
+        <v>336.0996312917832</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697544</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,31 +37855,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>701.5799957097205</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>158.523830181033</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R42" t="n">
         <v>118.3563415094341</v>
@@ -37935,13 +37937,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M43" t="n">
         <v>464.1251183645586</v>
@@ -37950,7 +37952,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
@@ -38014,31 +38016,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>809.0782778761404</v>
       </c>
       <c r="M44" t="n">
-        <v>701.5799957097204</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
-        <v>701.5799957097205</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>701.5799957097202</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P44" t="n">
-        <v>121.2143535006462</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q44" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K45" t="n">
-        <v>661.3192390158822</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -38172,13 +38174,13 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K46" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L46" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080416</v>
       </c>
       <c r="M46" t="n">
         <v>464.1251183645586</v>
@@ -38187,7 +38189,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P46" t="n">
         <v>351.017064616507</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_5_28.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_5_28.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1165475.813640904</v>
+        <v>1164869.726012007</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>606553.2040797165</v>
+        <v>606553.2040797167</v>
       </c>
     </row>
     <row r="9">
@@ -658,28 +658,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>422.0365747800587</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>378.8930818762257</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -712,22 +712,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>28.01040537429814</v>
       </c>
       <c r="X2" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -816,7 +816,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>27.97358346682135</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
@@ -831,13 +831,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>3.139541480022953</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -895,13 +895,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>422.0365747800587</v>
+        <v>335.8915546016272</v>
       </c>
       <c r="C5" t="n">
-        <v>433.7610480884109</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>102.7176563887149</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E5" t="n">
         <v>29.43699739328775</v>
@@ -946,13 +946,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
@@ -1062,13 +1062,13 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>119.8634463900538</v>
       </c>
       <c r="H7" t="n">
         <v>138.5031525665292</v>
@@ -1104,13 +1104,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>221.1652862082624</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
         <v>284.0859530482738</v>
@@ -1132,19 +1132,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>335.8915546016272</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D8" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1183,22 +1183,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>45.10878876340928</v>
       </c>
       <c r="Y8" t="n">
         <v>404.2032624633431</v>
@@ -1290,7 +1290,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>170.8360944016073</v>
@@ -1302,7 +1302,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
-        <v>52.00914065545653</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
         <v>163.9353622244306</v>
@@ -1338,7 +1338,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
         <v>157.6489550149833</v>
@@ -1356,10 +1356,10 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>27.9735834668218</v>
       </c>
     </row>
     <row r="11">
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>310.8326411358238</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
@@ -1381,10 +1381,10 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>409.0867647799247</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>286.2388530112159</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
         <v>256.6300796561533</v>
@@ -1536,10 +1536,10 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
         <v>163.9353622244306</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>134.7806822622888</v>
+        <v>67.4289457920829</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1618,13 +1618,13 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>423.5887552948843</v>
+        <v>11.70291171695604</v>
       </c>
       <c r="G14" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I14" t="n">
         <v>0.4126214791313976</v>
@@ -1672,7 +1672,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>289.3040482197699</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
         <v>404.2032624633431</v>
@@ -1812,10 +1812,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>16.92574903169017</v>
       </c>
       <c r="T16" t="n">
         <v>243.4206519573293</v>
@@ -1824,7 +1824,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
-        <v>279.808058998282</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
         <v>269.3061403695714</v>
@@ -1846,7 +1846,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884122</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
         <v>431.5506869772999</v>
@@ -1858,7 +1858,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629699</v>
       </c>
       <c r="H17" t="n">
         <v>286.2388530112159</v>
@@ -2004,7 +2004,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>164.2192128704925</v>
@@ -2019,7 +2019,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>18.05677735226246</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
         <v>243.4206519573293</v>
@@ -2070,7 +2070,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>225.1454739790328</v>
+        <v>96.68259506970313</v>
       </c>
     </row>
     <row r="20">
@@ -2140,7 +2140,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V20" t="n">
-        <v>358.9907805655127</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
         <v>400.806900043077</v>
@@ -2256,10 +2256,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,10 +2289,10 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>18.05677735225751</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>275.6486707394257</v>
@@ -2301,7 +2301,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W22" t="n">
-        <v>269.3061403695714</v>
+        <v>146.8581123645739</v>
       </c>
       <c r="X22" t="n">
         <v>242.9378371199217</v>
@@ -2490,13 +2490,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>3.139541480022588</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2535,7 +2535,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
-        <v>284.0859530482738</v>
+        <v>122.1591039832982</v>
       </c>
       <c r="W25" t="n">
         <v>269.3061403695714</v>
@@ -2544,7 +2544,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y25" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
@@ -2724,16 +2724,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F28" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>60.78001549303652</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2772,10 +2772,10 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
-        <v>187.5234134555184</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X28" t="n">
         <v>242.9378371199217</v>
@@ -2845,7 +2845,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T29" t="n">
-        <v>217.8665548556918</v>
+        <v>217.8665548556926</v>
       </c>
       <c r="U29" t="n">
         <v>256.6300796561533</v>
@@ -2955,7 +2955,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
         <v>168.0604237117701</v>
@@ -2964,13 +2964,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
-        <v>163.9353622244306</v>
+        <v>94.21878984361905</v>
       </c>
       <c r="H31" t="n">
-        <v>3.423392126084468</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3201,10 +3201,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>3.139541480022588</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3243,10 +3243,10 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U34" t="n">
-        <v>275.6486707394257</v>
+        <v>260.4356504767625</v>
       </c>
       <c r="V34" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>269.3061403695714</v>
@@ -3438,7 +3438,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
         <v>138.5031525665292</v>
@@ -3471,19 +3471,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T37" t="n">
-        <v>199.1362892344166</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U37" t="n">
         <v>275.6486707394257</v>
       </c>
       <c r="V37" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>269.3061403695714</v>
@@ -3492,7 +3492,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>225.1454739790328</v>
+        <v>122.1591039832982</v>
       </c>
     </row>
     <row r="38">
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800233</v>
       </c>
       <c r="T38" t="n">
         <v>217.8665548556918</v>
@@ -3678,7 +3678,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>18.05677735225841</v>
+        <v>18.05677735225717</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3757,10 +3757,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>175.0349193669808</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3799,7 +3799,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V41" t="n">
-        <v>248.1994684004084</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
         <v>400.806900043077</v>
@@ -3903,7 +3903,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>168.0604237117701</v>
@@ -3912,13 +3912,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>163.9353622244306</v>
+        <v>79.5854046174441</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,10 +3945,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>18.05677735225796</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
         <v>243.4206519573293</v>
@@ -3991,13 +3991,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G44" t="n">
-        <v>272.1494839753878</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>233.3437899987995</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4036,7 +4036,7 @@
         <v>256.6300796561533</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W44" t="n">
         <v>400.806900043077</v>
@@ -4140,7 +4140,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
         <v>168.0604237117701</v>
@@ -4149,10 +4149,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170481</v>
       </c>
       <c r="H46" t="n">
-        <v>3.42339212608489</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>157.6489550149833</v>
@@ -4306,28 +4306,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>927.8253404203546</v>
+        <v>1674.602188492498</v>
       </c>
       <c r="C2" t="n">
-        <v>489.6828676037779</v>
+        <v>1640.500119716325</v>
       </c>
       <c r="D2" t="n">
-        <v>106.9625828803175</v>
+        <v>1204.590334890769</v>
       </c>
       <c r="E2" t="n">
-        <v>77.22824207901678</v>
+        <v>770.8155900490646</v>
       </c>
       <c r="F2" t="n">
-        <v>53.40121652862857</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="G2" t="n">
-        <v>53.40121652862857</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H2" t="n">
-        <v>53.40121652862857</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I2" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J2" t="n">
         <v>488.6559039815464</v>
@@ -4336,22 +4336,22 @@
         <v>1149.495958523325</v>
       </c>
       <c r="L2" t="n">
-        <v>1293.567921177998</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M2" t="n">
-        <v>1293.567921177998</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N2" t="n">
-        <v>1293.567921177998</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O2" t="n">
-        <v>1293.567921177998</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="P2" t="n">
-        <v>1954.407975719777</v>
+        <v>2123.562040472833</v>
       </c>
       <c r="Q2" t="n">
-        <v>2500.906761678372</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R2" t="n">
         <v>2670.060826431428</v>
@@ -4360,22 +4360,22 @@
         <v>2586.408952615265</v>
       </c>
       <c r="T2" t="n">
-        <v>2586.408952615265</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U2" t="n">
-        <v>2586.408952615265</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V2" t="n">
-        <v>2586.408952615265</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W2" t="n">
-        <v>2181.553498026298</v>
+        <v>1716.209133977229</v>
       </c>
       <c r="X2" t="n">
-        <v>1762.411034605609</v>
+        <v>1701.107074596944</v>
       </c>
       <c r="Y2" t="n">
-        <v>1354.124910905262</v>
+        <v>1696.861354937001</v>
       </c>
     </row>
     <row r="3">
@@ -4403,31 +4403,31 @@
         <v>95.13686871241609</v>
       </c>
       <c r="H3" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I3" t="n">
-        <v>53.40121652862857</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J3" t="n">
-        <v>53.40121652862857</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K3" t="n">
-        <v>53.40121652862857</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L3" t="n">
-        <v>714.241271070407</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M3" t="n">
-        <v>714.241271070407</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N3" t="n">
-        <v>714.241271070407</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O3" t="n">
-        <v>714.241271070407</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P3" t="n">
-        <v>1375.081325612186</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q3" t="n">
         <v>1599.468199913098</v>
@@ -4464,43 +4464,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>741.4772326516127</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C4" t="n">
-        <v>568.9155211348376</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D4" t="n">
-        <v>403.0375283363603</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E4" t="n">
-        <v>233.2795245870976</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F4" t="n">
-        <v>56.57247054885377</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G4" t="n">
-        <v>53.40121652862857</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H4" t="n">
-        <v>53.40121652862857</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I4" t="n">
-        <v>53.40121652862857</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J4" t="n">
-        <v>139.9809016933184</v>
+        <v>139.9809016933183</v>
       </c>
       <c r="K4" t="n">
-        <v>414.739356264454</v>
+        <v>414.7393562644539</v>
       </c>
       <c r="L4" t="n">
-        <v>832.9492380324151</v>
+        <v>832.949238032415</v>
       </c>
       <c r="M4" t="n">
         <v>1292.433105213328</v>
       </c>
       <c r="N4" t="n">
-        <v>1734.691908370973</v>
+        <v>1734.691908370972</v>
       </c>
       <c r="O4" t="n">
         <v>2154.361157596754</v>
@@ -4515,25 +4515,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S4" t="n">
-        <v>2489.401636434797</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T4" t="n">
-        <v>2243.522190013252</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U4" t="n">
         <v>1965.089189266357</v>
       </c>
       <c r="V4" t="n">
-        <v>1678.133681136788</v>
+        <v>1678.133681136787</v>
       </c>
       <c r="W4" t="n">
         <v>1406.107276723079</v>
       </c>
       <c r="X4" t="n">
-        <v>1160.715522056492</v>
+        <v>1160.715522056491</v>
       </c>
       <c r="Y4" t="n">
-        <v>933.2958513705998</v>
+        <v>1160.715522056491</v>
       </c>
     </row>
     <row r="5">
@@ -4543,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>648.8602641703436</v>
+        <v>172.9340324416416</v>
       </c>
       <c r="C5" t="n">
-        <v>210.7177913537669</v>
+        <v>138.8319636654689</v>
       </c>
       <c r="D5" t="n">
         <v>106.9625828803175</v>
@@ -4567,19 +4567,19 @@
         <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>141.0418768474983</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>801.8819313892766</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>801.8819313892766</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="M5" t="n">
-        <v>801.8819313892766</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="N5" t="n">
-        <v>801.8819313892766</v>
+        <v>1462.721985931055</v>
       </c>
       <c r="O5" t="n">
         <v>1462.721985931055</v>
@@ -4594,25 +4594,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>2670.060826431428</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T5" t="n">
-        <v>2670.060826431428</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U5" t="n">
-        <v>2670.060826431428</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V5" t="n">
-        <v>2307.443876365254</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W5" t="n">
-        <v>1902.588421776288</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="X5" t="n">
-        <v>1483.445958355598</v>
+        <v>920.5045547294905</v>
       </c>
       <c r="Y5" t="n">
-        <v>1075.159834655251</v>
+        <v>512.2184310291439</v>
       </c>
     </row>
     <row r="6">
@@ -4649,22 +4649,22 @@
         <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>404.0232146552985</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1064.863269197077</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
         <v>1599.468199913098</v>
@@ -4701,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>955.7523231022661</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C7" t="n">
-        <v>783.1906115854911</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D7" t="n">
-        <v>617.3126187870138</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E7" t="n">
-        <v>447.554615037751</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="F7" t="n">
-        <v>447.554615037751</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="G7" t="n">
         <v>281.9633400635787</v>
@@ -4752,25 +4752,25 @@
         <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>2648.6430051368</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T7" t="n">
-        <v>2402.763558715255</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U7" t="n">
-        <v>2179.364279717011</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>1892.408771587441</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W7" t="n">
-        <v>1620.382367173733</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X7" t="n">
-        <v>1374.990612507145</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y7" t="n">
-        <v>1147.570941821253</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="8">
@@ -4780,16 +4780,16 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>172.9340324416416</v>
+        <v>1789.095648603258</v>
       </c>
       <c r="C8" t="n">
-        <v>138.8319636654689</v>
+        <v>1350.953175786681</v>
       </c>
       <c r="D8" t="n">
-        <v>106.9625828803175</v>
+        <v>915.0433909611256</v>
       </c>
       <c r="E8" t="n">
-        <v>77.22824207901677</v>
+        <v>481.2686461194208</v>
       </c>
       <c r="F8" t="n">
         <v>53.40121652862856</v>
@@ -4807,19 +4807,19 @@
         <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>488.6559039815464</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>488.6559039815464</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M8" t="n">
-        <v>488.6559039815464</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N8" t="n">
-        <v>632.7278666362198</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O8" t="n">
-        <v>1293.567921177998</v>
+        <v>1810.336013065103</v>
       </c>
       <c r="P8" t="n">
         <v>1954.407975719776</v>
@@ -4831,25 +4831,25 @@
         <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>2586.408952615265</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>2366.341725488303</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U8" t="n">
-        <v>2107.11942280532</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V8" t="n">
-        <v>1744.502472739146</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W8" t="n">
-        <v>1339.64701815018</v>
+        <v>2669.245775882865</v>
       </c>
       <c r="X8" t="n">
-        <v>920.5045547294905</v>
+        <v>2623.681342788512</v>
       </c>
       <c r="Y8" t="n">
-        <v>512.2184310291439</v>
+        <v>2215.395219088166</v>
       </c>
     </row>
     <row r="9">
@@ -4895,10 +4895,10 @@
         <v>404.0232146552985</v>
       </c>
       <c r="N9" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="O9" t="n">
-        <v>1058.729261281022</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="P9" t="n">
         <v>1058.729261281022</v>
@@ -4938,16 +4938,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1008.286808612828</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>835.7250970960532</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>669.8471042975759</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>500.0891005483132</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
         <v>447.554615037751</v>
@@ -4986,28 +4986,28 @@
         <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>2670.060826431428</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>2510.819457729425</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T10" t="n">
-        <v>2264.94001130788</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U10" t="n">
-        <v>1986.507010560985</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V10" t="n">
-        <v>1699.551502431416</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W10" t="n">
-        <v>1427.525098017707</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X10" t="n">
-        <v>1427.525098017707</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y10" t="n">
-        <v>1200.105427331815</v>
+        <v>1132.45937714051</v>
       </c>
     </row>
     <row r="11">
@@ -5017,19 +5017,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2520.409306699863</v>
+        <v>2104.363000055491</v>
       </c>
       <c r="C11" t="n">
-        <v>2082.266833883286</v>
+        <v>1666.220527238914</v>
       </c>
       <c r="D11" t="n">
-        <v>1646.357049057731</v>
+        <v>1230.310742413359</v>
       </c>
       <c r="E11" t="n">
-        <v>1212.582304216026</v>
+        <v>796.5359975716538</v>
       </c>
       <c r="F11" t="n">
-        <v>784.7148746252335</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="G11" t="n">
         <v>383.3170432484974</v>
@@ -5041,16 +5041,16 @@
         <v>93.77009931885365</v>
       </c>
       <c r="J11" t="n">
-        <v>529.0247867717716</v>
+        <v>254.9523156162913</v>
       </c>
       <c r="K11" t="n">
-        <v>1363.37507872995</v>
+        <v>1089.302607574469</v>
       </c>
       <c r="L11" t="n">
-        <v>1363.37507872995</v>
+        <v>2164.362573827329</v>
       </c>
       <c r="M11" t="n">
-        <v>1363.37507872995</v>
+        <v>2164.362573827329</v>
       </c>
       <c r="N11" t="n">
         <v>2164.362573827329</v>
@@ -5068,25 +5068,25 @@
         <v>4688.504965942682</v>
       </c>
       <c r="S11" t="n">
-        <v>4688.504965942682</v>
+        <v>4604.853092126519</v>
       </c>
       <c r="T11" t="n">
-        <v>4688.504965942682</v>
+        <v>4384.785864999558</v>
       </c>
       <c r="U11" t="n">
-        <v>4429.282663259699</v>
+        <v>4125.563562316574</v>
       </c>
       <c r="V11" t="n">
-        <v>4066.665713193525</v>
+        <v>3762.946612250401</v>
       </c>
       <c r="W11" t="n">
-        <v>3661.810258604559</v>
+        <v>3358.091157661434</v>
       </c>
       <c r="X11" t="n">
-        <v>3242.66779518387</v>
+        <v>2938.948694240745</v>
       </c>
       <c r="Y11" t="n">
-        <v>2834.381671483523</v>
+        <v>2530.662570540399</v>
       </c>
     </row>
     <row r="12">
@@ -5175,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>826.3632021432285</v>
+        <v>1172.828259930735</v>
       </c>
       <c r="C13" t="n">
-        <v>653.8014906264534</v>
+        <v>1000.26654841396</v>
       </c>
       <c r="D13" t="n">
-        <v>487.9234978279761</v>
+        <v>834.3885556154826</v>
       </c>
       <c r="E13" t="n">
-        <v>487.9234978279761</v>
+        <v>664.6305518662199</v>
       </c>
       <c r="F13" t="n">
         <v>487.9234978279761</v>
@@ -5226,25 +5226,25 @@
         <v>2710.429709221653</v>
       </c>
       <c r="S13" t="n">
-        <v>2574.287605926412</v>
+        <v>2642.319662967024</v>
       </c>
       <c r="T13" t="n">
-        <v>2328.408159504867</v>
+        <v>2396.440216545479</v>
       </c>
       <c r="U13" t="n">
-        <v>2049.975158757973</v>
+        <v>2396.440216545479</v>
       </c>
       <c r="V13" t="n">
-        <v>1763.019650628403</v>
+        <v>2109.48470841591</v>
       </c>
       <c r="W13" t="n">
-        <v>1490.993246214695</v>
+        <v>1837.458304002201</v>
       </c>
       <c r="X13" t="n">
-        <v>1245.601491548107</v>
+        <v>1592.066549335614</v>
       </c>
       <c r="Y13" t="n">
-        <v>1018.181820862216</v>
+        <v>1364.646878649722</v>
       </c>
     </row>
     <row r="14">
@@ -5254,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2231.279152143079</v>
+        <v>2104.363000055491</v>
       </c>
       <c r="C14" t="n">
-        <v>1793.136679326502</v>
+        <v>1666.220527238914</v>
       </c>
       <c r="D14" t="n">
-        <v>1357.226894500947</v>
+        <v>1230.310742413359</v>
       </c>
       <c r="E14" t="n">
-        <v>923.452149659242</v>
+        <v>796.5359975716538</v>
       </c>
       <c r="F14" t="n">
-        <v>495.5847200684498</v>
+        <v>784.7148746252335</v>
       </c>
       <c r="G14" t="n">
-        <v>94.18688869171365</v>
+        <v>383.3170432484974</v>
       </c>
       <c r="H14" t="n">
         <v>94.18688869171365</v>
@@ -5278,25 +5278,25 @@
         <v>93.77009931885365</v>
       </c>
       <c r="J14" t="n">
-        <v>424.1063803693477</v>
+        <v>529.0247867717716</v>
       </c>
       <c r="K14" t="n">
-        <v>1258.456672327526</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L14" t="n">
-        <v>2333.516638580385</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="M14" t="n">
-        <v>2333.516638580385</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="N14" t="n">
-        <v>2333.516638580385</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="O14" t="n">
-        <v>3313.696305150691</v>
+        <v>3418.614711553115</v>
       </c>
       <c r="P14" t="n">
-        <v>4142.006179984088</v>
+        <v>4246.924586386512</v>
       </c>
       <c r="Q14" t="n">
         <v>4688.504965942682</v>
@@ -5320,10 +5320,10 @@
         <v>3358.091157661434</v>
       </c>
       <c r="X14" t="n">
-        <v>3065.864846328333</v>
+        <v>2938.948694240745</v>
       </c>
       <c r="Y14" t="n">
-        <v>2657.578722627987</v>
+        <v>2530.662570540399</v>
       </c>
     </row>
     <row r="15">
@@ -5360,19 +5360,19 @@
         <v>444.3920974455236</v>
       </c>
       <c r="K15" t="n">
-        <v>1099.098144071247</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="L15" t="n">
-        <v>1099.098144071247</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="M15" t="n">
-        <v>1099.098144071247</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="N15" t="n">
-        <v>1099.098144071247</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="O15" t="n">
-        <v>1099.098144071247</v>
+        <v>444.3920974455236</v>
       </c>
       <c r="P15" t="n">
         <v>1099.098144071247</v>
@@ -5460,16 +5460,16 @@
         <v>2710.429709221653</v>
       </c>
       <c r="R16" t="n">
-        <v>2689.011887927025</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S16" t="n">
-        <v>2689.011887927025</v>
+        <v>2693.332993028027</v>
       </c>
       <c r="T16" t="n">
-        <v>2443.132441505481</v>
+        <v>2447.453546606482</v>
       </c>
       <c r="U16" t="n">
-        <v>2164.699440758586</v>
+        <v>2169.020545859587</v>
       </c>
       <c r="V16" t="n">
         <v>1882.065037730018</v>
@@ -5494,16 +5494,16 @@
         <v>2528.90004765179</v>
       </c>
       <c r="C17" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D17" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009658</v>
       </c>
       <c r="E17" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167953</v>
       </c>
       <c r="F17" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771606</v>
       </c>
       <c r="G17" t="n">
         <v>391.8077842004234</v>
@@ -5515,28 +5515,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J17" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K17" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L17" t="n">
-        <v>936.6111322289576</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M17" t="n">
-        <v>2093.658967439508</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N17" t="n">
-        <v>3219.389950875955</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O17" t="n">
-        <v>4199.569617446262</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P17" t="n">
-        <v>5027.879492279658</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q17" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R17" t="n">
         <v>5113.042013538981</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3346.878440713109</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="C19" t="n">
-        <v>3174.316729196334</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D19" t="n">
-        <v>3008.438736397857</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E19" t="n">
-        <v>2838.680732648594</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F19" t="n">
-        <v>2661.97367861035</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G19" t="n">
-        <v>2496.382403636178</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H19" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I19" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J19" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K19" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L19" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M19" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N19" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O19" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P19" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q19" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R19" t="n">
-        <v>5113.042013538981</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S19" t="n">
-        <v>5094.802844496292</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T19" t="n">
-        <v>4848.923398074748</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U19" t="n">
-        <v>4570.490397327853</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V19" t="n">
-        <v>4283.534889198284</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W19" t="n">
-        <v>4011.508484784576</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X19" t="n">
-        <v>3766.116730117988</v>
+        <v>1209.575145798642</v>
       </c>
       <c r="Y19" t="n">
-        <v>3538.697059432096</v>
+        <v>1111.915958859548</v>
       </c>
     </row>
     <row r="20">
@@ -5740,64 +5740,64 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F20" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G20" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H20" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I20" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J20" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K20" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L20" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M20" t="n">
-        <v>3168.718933692368</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N20" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O20" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P20" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q20" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R20" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S20" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T20" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U20" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V20" t="n">
         <v>4187.483659846699</v>
       </c>
       <c r="W20" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X20" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y20" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="21">
@@ -5807,76 +5807,76 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C21" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D21" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E21" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F21" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G21" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H21" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I21" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J21" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K21" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L21" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M21" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N21" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O21" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P21" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q21" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R21" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S21" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T21" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U21" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V21" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W21" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X21" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y21" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="22">
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>952.7568773477108</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C22" t="n">
-        <v>780.1951658309357</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D22" t="n">
-        <v>614.3171730324584</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E22" t="n">
-        <v>444.5591692831957</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F22" t="n">
-        <v>267.852115244952</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G22" t="n">
-        <v>102.2608402707796</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H22" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I22" t="n">
         <v>102.2608402707796</v>
@@ -5937,25 +5937,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S22" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T22" t="n">
-        <v>2454.80183470935</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="U22" t="n">
-        <v>2176.368833962455</v>
+        <v>2281.246080724681</v>
       </c>
       <c r="V22" t="n">
-        <v>1889.413325832886</v>
+        <v>1994.290572595111</v>
       </c>
       <c r="W22" t="n">
-        <v>1617.386921419177</v>
+        <v>1845.949044954127</v>
       </c>
       <c r="X22" t="n">
-        <v>1371.99516675259</v>
+        <v>1600.55729028754</v>
       </c>
       <c r="Y22" t="n">
-        <v>1144.575496066698</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="23">
@@ -5977,40 +5977,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F23" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G23" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H23" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I23" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J23" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K23" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L23" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>3168.718933692368</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O23" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P23" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q23" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R23" t="n">
         <v>5113.04201353898</v>
@@ -6028,13 +6028,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W23" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X23" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y23" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="24">
@@ -6065,31 +6065,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I24" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J24" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K24" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L24" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M24" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N24" t="n">
-        <v>1056.803889081883</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P24" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q24" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R24" t="n">
         <v>1765.500601749588</v>
@@ -6123,25 +6123,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>790.3368563937634</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C25" t="n">
-        <v>617.7751448769883</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D25" t="n">
-        <v>451.897152078511</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E25" t="n">
-        <v>282.1391483292483</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F25" t="n">
-        <v>105.4320942910045</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G25" t="n">
-        <v>105.4320942910045</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H25" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6183,16 +6183,16 @@
         <v>2013.948813008508</v>
       </c>
       <c r="V25" t="n">
-        <v>1726.993304878938</v>
+        <v>1890.555778681944</v>
       </c>
       <c r="W25" t="n">
-        <v>1454.96690046523</v>
+        <v>1618.529374268236</v>
       </c>
       <c r="X25" t="n">
-        <v>1209.575145798642</v>
+        <v>1373.137619601648</v>
       </c>
       <c r="Y25" t="n">
-        <v>982.1554751127505</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="26">
@@ -6214,40 +6214,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F26" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G26" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H26" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I26" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>1850.083528321676</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M26" t="n">
-        <v>3007.131363532227</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N26" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6265,13 +6265,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W26" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X26" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y26" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="27">
@@ -6302,31 +6302,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L27" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M27" t="n">
-        <v>782.9943603411569</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P27" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q27" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R27" t="n">
         <v>1765.500601749588</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1181.319000882661</v>
+        <v>811.7546776883914</v>
       </c>
       <c r="C28" t="n">
-        <v>1008.757289365886</v>
+        <v>639.1929661716164</v>
       </c>
       <c r="D28" t="n">
-        <v>842.8792965674086</v>
+        <v>473.3149733731391</v>
       </c>
       <c r="E28" t="n">
-        <v>673.1212928181459</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="F28" t="n">
-        <v>496.4142387799021</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="G28" t="n">
-        <v>330.8229638057298</v>
+        <v>303.5569696238763</v>
       </c>
       <c r="H28" t="n">
-        <v>190.9207894961043</v>
+        <v>163.6547953142509</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6420,16 +6420,16 @@
         <v>2035.366634303136</v>
       </c>
       <c r="V28" t="n">
-        <v>2035.366634303136</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W28" t="n">
-        <v>1845.949044954127</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X28" t="n">
-        <v>1600.55729028754</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y28" t="n">
-        <v>1373.137619601648</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="29">
@@ -6463,34 +6463,34 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J29" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K29" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M29" t="n">
-        <v>3007.131363532227</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N29" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O29" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P29" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q29" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R29" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S29" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T29" t="n">
         <v>4809.322912595856</v>
@@ -6539,31 +6539,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I30" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J30" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L30" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M30" t="n">
-        <v>1300.985674363279</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P30" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q30" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R30" t="n">
         <v>1765.500601749588</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>790.3368563937634</v>
+        <v>970.9960463903976</v>
       </c>
       <c r="C31" t="n">
-        <v>617.7751448769883</v>
+        <v>798.4343348736226</v>
       </c>
       <c r="D31" t="n">
-        <v>617.7751448769883</v>
+        <v>632.5563420751453</v>
       </c>
       <c r="E31" t="n">
-        <v>448.0171411277256</v>
+        <v>462.7983383258825</v>
       </c>
       <c r="F31" t="n">
-        <v>271.3100870894817</v>
+        <v>286.0912842876387</v>
       </c>
       <c r="G31" t="n">
-        <v>105.7188121153094</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="H31" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6639,34 +6639,34 @@
         <v>2203.220781338905</v>
       </c>
       <c r="P31" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.72767530925</v>
       </c>
       <c r="Q31" t="n">
-        <v>2718.920450173579</v>
+        <v>2718.920450173582</v>
       </c>
       <c r="R31" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173582</v>
       </c>
       <c r="S31" t="n">
-        <v>2538.261260176947</v>
+        <v>2718.920450173582</v>
       </c>
       <c r="T31" t="n">
-        <v>2292.381813755403</v>
+        <v>2473.041003752037</v>
       </c>
       <c r="U31" t="n">
-        <v>2013.948813008508</v>
+        <v>2194.608003005142</v>
       </c>
       <c r="V31" t="n">
-        <v>1726.993304878938</v>
+        <v>1907.652494875573</v>
       </c>
       <c r="W31" t="n">
-        <v>1454.96690046523</v>
+        <v>1635.626090461864</v>
       </c>
       <c r="X31" t="n">
-        <v>1209.575145798642</v>
+        <v>1390.234335795277</v>
       </c>
       <c r="Y31" t="n">
-        <v>982.1554751127505</v>
+        <v>1162.814665109385</v>
       </c>
     </row>
     <row r="32">
@@ -6688,40 +6688,40 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F32" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G32" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H32" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I32" t="n">
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>3007.131363532227</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N32" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>3955.973997051466</v>
+        <v>608.4325852620724</v>
       </c>
       <c r="C33" t="n">
-        <v>3849.517535888108</v>
+        <v>501.9761240987147</v>
       </c>
       <c r="D33" t="n">
-        <v>3754.427247034661</v>
+        <v>406.885835245268</v>
       </c>
       <c r="E33" t="n">
-        <v>3660.306832361615</v>
+        <v>312.7654205722217</v>
       </c>
       <c r="F33" t="n">
-        <v>3576.922993977777</v>
+        <v>229.3815821883833</v>
       </c>
       <c r="G33" t="n">
-        <v>3491.53790424396</v>
+        <v>143.9964924545671</v>
       </c>
       <c r="H33" t="n">
-        <v>3449.802252060173</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I33" t="n">
-        <v>3475.865925220631</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J33" t="n">
-        <v>3800.424250186843</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P33" t="n">
-        <v>4455.130296812566</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q33" t="n">
-        <v>4995.869235444641</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R33" t="n">
-        <v>5113.042013538981</v>
+        <v>1765.500601749588</v>
       </c>
       <c r="S33" t="n">
-        <v>5049.586575987364</v>
+        <v>1702.045164197971</v>
       </c>
       <c r="T33" t="n">
-        <v>4919.407932317966</v>
+        <v>1571.866520528573</v>
       </c>
       <c r="U33" t="n">
-        <v>4743.071385317934</v>
+        <v>1395.529973528541</v>
       </c>
       <c r="V33" t="n">
-        <v>4543.953867379933</v>
+        <v>1196.412455590541</v>
       </c>
       <c r="W33" t="n">
-        <v>4358.631113113128</v>
+        <v>1011.089701323735</v>
       </c>
       <c r="X33" t="n">
-        <v>4203.763677352008</v>
+        <v>856.2222655626148</v>
       </c>
       <c r="Y33" t="n">
-        <v>4077.277898131229</v>
+        <v>729.7364863418355</v>
       </c>
     </row>
     <row r="34">
@@ -6834,22 +6834,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>790.3368563937634</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C34" t="n">
-        <v>617.7751448769883</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D34" t="n">
-        <v>451.897152078511</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E34" t="n">
-        <v>282.1391483292483</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F34" t="n">
-        <v>105.4320942910045</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G34" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H34" t="n">
         <v>102.2608402707796</v>
@@ -6891,19 +6891,19 @@
         <v>2292.381813755403</v>
       </c>
       <c r="U34" t="n">
-        <v>2013.948813008508</v>
+        <v>2029.315500142511</v>
       </c>
       <c r="V34" t="n">
-        <v>1726.993304878938</v>
+        <v>2029.315500142511</v>
       </c>
       <c r="W34" t="n">
-        <v>1454.96690046523</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X34" t="n">
-        <v>1209.575145798642</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y34" t="n">
-        <v>982.1554751127505</v>
+        <v>1284.477670376323</v>
       </c>
     </row>
     <row r="35">
@@ -6925,13 +6925,13 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771594</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6940,22 +6940,22 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K35" t="n">
-        <v>102.2608402707796</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L35" t="n">
-        <v>1177.320806523639</v>
+        <v>1632.322702740236</v>
       </c>
       <c r="M35" t="n">
-        <v>2334.36864173419</v>
+        <v>1632.322702740236</v>
       </c>
       <c r="N35" t="n">
-        <v>3460.099625170637</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="O35" t="n">
-        <v>4440.279291740943</v>
+        <v>3738.23335274699</v>
       </c>
       <c r="P35" t="n">
-        <v>5113.04201353898</v>
+        <v>4566.543227580386</v>
       </c>
       <c r="Q35" t="n">
         <v>5113.04201353898</v>
@@ -7013,31 +7013,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I36" t="n">
-        <v>102.2608402707796</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J36" t="n">
-        <v>102.2608402707796</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="L36" t="n">
-        <v>102.2608402707796</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="M36" t="n">
-        <v>531.6733301892817</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="N36" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="O36" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="P36" t="n">
-        <v>1765.500601749588</v>
+        <v>1107.588885023173</v>
       </c>
       <c r="Q36" t="n">
-        <v>1765.500601749588</v>
+        <v>1648.327823655249</v>
       </c>
       <c r="R36" t="n">
         <v>1765.500601749588</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1015.727725908489</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C37" t="n">
-        <v>843.1660143917135</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D37" t="n">
-        <v>677.2880215932362</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E37" t="n">
-        <v>507.5300178439735</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F37" t="n">
-        <v>330.8229638057297</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G37" t="n">
-        <v>330.8229638057297</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H37" t="n">
         <v>190.9207894961043</v>
@@ -7119,28 +7119,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S37" t="n">
-        <v>2718.920450173579</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T37" t="n">
-        <v>2517.772683270128</v>
+        <v>2292.381813755403</v>
       </c>
       <c r="U37" t="n">
-        <v>2239.339682523233</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="V37" t="n">
-        <v>1952.384174393663</v>
+        <v>2013.948813008508</v>
       </c>
       <c r="W37" t="n">
-        <v>1680.357769979955</v>
+        <v>1741.922408594799</v>
       </c>
       <c r="X37" t="n">
-        <v>1434.966015313368</v>
+        <v>1496.530653928212</v>
       </c>
       <c r="Y37" t="n">
-        <v>1207.546344627476</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
     <row r="38">
@@ -7174,31 +7174,31 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>3168.718933692368</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>4294.449917128814</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O38" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P38" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S38" t="n">
         <v>5029.390139722817</v>
@@ -7213,13 +7213,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257732</v>
       </c>
       <c r="X38" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136697</v>
+        <v>2955.199618136696</v>
       </c>
     </row>
     <row r="39">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>3365.117609755799</v>
+        <v>970.9960463903949</v>
       </c>
       <c r="C40" t="n">
-        <v>3192.555898239023</v>
+        <v>798.4343348736198</v>
       </c>
       <c r="D40" t="n">
-        <v>3026.677905440546</v>
+        <v>632.5563420751425</v>
       </c>
       <c r="E40" t="n">
-        <v>2856.919901691283</v>
+        <v>462.7983383258798</v>
       </c>
       <c r="F40" t="n">
-        <v>2680.21284765304</v>
+        <v>286.091284287636</v>
       </c>
       <c r="G40" t="n">
-        <v>2514.621572678867</v>
+        <v>120.5000093134636</v>
       </c>
       <c r="H40" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
-        <v>2496.382403636182</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="J40" t="n">
-        <v>2582.962088800872</v>
+        <v>188.8405254354695</v>
       </c>
       <c r="K40" t="n">
-        <v>2857.720543372007</v>
+        <v>463.598980006605</v>
       </c>
       <c r="L40" t="n">
-        <v>3275.930425139968</v>
+        <v>881.8088617745661</v>
       </c>
       <c r="M40" t="n">
-        <v>3735.414292320881</v>
+        <v>1341.292728955479</v>
       </c>
       <c r="N40" t="n">
-        <v>4177.673095478525</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O40" t="n">
-        <v>4597.342344704308</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P40" t="n">
-        <v>4944.849238674649</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q40" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R40" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>5113.042013538981</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T40" t="n">
-        <v>4867.162567117437</v>
+        <v>2473.041003752034</v>
       </c>
       <c r="U40" t="n">
-        <v>4588.729566370543</v>
+        <v>2194.608003005139</v>
       </c>
       <c r="V40" t="n">
-        <v>4301.774058240973</v>
+        <v>1907.65249487557</v>
       </c>
       <c r="W40" t="n">
-        <v>4029.747653827265</v>
+        <v>1635.626090461861</v>
       </c>
       <c r="X40" t="n">
-        <v>3784.355899160677</v>
+        <v>1390.234335795274</v>
       </c>
       <c r="Y40" t="n">
-        <v>3556.936228474786</v>
+        <v>1162.814665109382</v>
       </c>
     </row>
     <row r="41">
@@ -7387,25 +7387,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2519.992517327003</v>
+        <v>2408.082100998615</v>
       </c>
       <c r="C41" t="n">
-        <v>2081.850044510426</v>
+        <v>1969.939628182039</v>
       </c>
       <c r="D41" t="n">
-        <v>1645.940259684871</v>
+        <v>1534.029843356483</v>
       </c>
       <c r="E41" t="n">
-        <v>1212.165514843166</v>
+        <v>1100.255098514778</v>
       </c>
       <c r="F41" t="n">
-        <v>784.2980852523735</v>
+        <v>672.387668923986</v>
       </c>
       <c r="G41" t="n">
-        <v>382.9002538756374</v>
+        <v>270.9898375472499</v>
       </c>
       <c r="H41" t="n">
-        <v>93.77009931885365</v>
+        <v>94.18688869171365</v>
       </c>
       <c r="I41" t="n">
         <v>93.77009931885365</v>
@@ -7414,25 +7414,25 @@
         <v>529.0247867717716</v>
       </c>
       <c r="K41" t="n">
-        <v>529.0247867717716</v>
+        <v>1363.37507872995</v>
       </c>
       <c r="L41" t="n">
-        <v>529.0247867717716</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="M41" t="n">
-        <v>1686.072621982323</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="N41" t="n">
-        <v>2811.80360541877</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="O41" t="n">
-        <v>3144.542240397635</v>
+        <v>3313.696305150691</v>
       </c>
       <c r="P41" t="n">
-        <v>3972.852115231031</v>
+        <v>4142.006179984088</v>
       </c>
       <c r="Q41" t="n">
-        <v>4519.350901189626</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="R41" t="n">
         <v>4688.504965942682</v>
@@ -7447,16 +7447,16 @@
         <v>4429.282663259699</v>
       </c>
       <c r="V41" t="n">
-        <v>4178.576129521913</v>
+        <v>4066.665713193525</v>
       </c>
       <c r="W41" t="n">
-        <v>3773.720674932946</v>
+        <v>3661.810258604559</v>
       </c>
       <c r="X41" t="n">
-        <v>3354.578211512257</v>
+        <v>3242.66779518387</v>
       </c>
       <c r="Y41" t="n">
-        <v>2946.29208781191</v>
+        <v>2834.381671483523</v>
       </c>
     </row>
     <row r="42">
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>944.2661363957848</v>
+        <v>781.8461154418378</v>
       </c>
       <c r="C43" t="n">
-        <v>771.7044248790097</v>
+        <v>609.2844039250627</v>
       </c>
       <c r="D43" t="n">
-        <v>605.8264320805324</v>
+        <v>609.2844039250627</v>
       </c>
       <c r="E43" t="n">
-        <v>436.0684283312697</v>
+        <v>439.5264001758</v>
       </c>
       <c r="F43" t="n">
-        <v>259.361374293026</v>
+        <v>262.8193461375562</v>
       </c>
       <c r="G43" t="n">
-        <v>93.77009931885365</v>
+        <v>182.4300485441783</v>
       </c>
       <c r="H43" t="n">
-        <v>93.77009931885365</v>
+        <v>182.4300485441783</v>
       </c>
       <c r="I43" t="n">
         <v>93.77009931885365</v>
@@ -7593,28 +7593,28 @@
         <v>2710.429709221653</v>
       </c>
       <c r="R43" t="n">
-        <v>2710.429709221653</v>
+        <v>2689.011887927025</v>
       </c>
       <c r="S43" t="n">
-        <v>2692.190540178969</v>
+        <v>2529.770519225022</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.311093757424</v>
+        <v>2283.891072803477</v>
       </c>
       <c r="U43" t="n">
-        <v>2167.878093010529</v>
+        <v>2005.458072056582</v>
       </c>
       <c r="V43" t="n">
-        <v>1880.92258488096</v>
+        <v>1718.502563927013</v>
       </c>
       <c r="W43" t="n">
-        <v>1608.896180467251</v>
+        <v>1446.476159513304</v>
       </c>
       <c r="X43" t="n">
-        <v>1363.504425800664</v>
+        <v>1201.084404846717</v>
       </c>
       <c r="Y43" t="n">
-        <v>1136.084755114772</v>
+        <v>973.664734160825</v>
       </c>
     </row>
     <row r="44">
@@ -7624,25 +7624,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2104.363000055491</v>
+        <v>2466.979950121664</v>
       </c>
       <c r="C44" t="n">
-        <v>1666.220527238914</v>
+        <v>2028.837477305088</v>
       </c>
       <c r="D44" t="n">
-        <v>1230.310742413359</v>
+        <v>1592.927692479532</v>
       </c>
       <c r="E44" t="n">
-        <v>796.5359975716538</v>
+        <v>1159.152947637827</v>
       </c>
       <c r="F44" t="n">
-        <v>368.6685679808615</v>
+        <v>731.2855180470351</v>
       </c>
       <c r="G44" t="n">
-        <v>93.77009931885365</v>
+        <v>329.887686670299</v>
       </c>
       <c r="H44" t="n">
-        <v>93.77009931885365</v>
+        <v>94.18688869171365</v>
       </c>
       <c r="I44" t="n">
         <v>93.77009931885365</v>
@@ -7654,22 +7654,22 @@
         <v>1363.37507872995</v>
       </c>
       <c r="L44" t="n">
-        <v>2164.362573827329</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="M44" t="n">
-        <v>2164.362573827329</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="N44" t="n">
-        <v>2164.362573827329</v>
+        <v>2438.435044982809</v>
       </c>
       <c r="O44" t="n">
-        <v>3144.542240397635</v>
+        <v>3313.696305150691</v>
       </c>
       <c r="P44" t="n">
-        <v>3972.852115231031</v>
+        <v>4142.006179984088</v>
       </c>
       <c r="Q44" t="n">
-        <v>4519.350901189626</v>
+        <v>4688.504965942682</v>
       </c>
       <c r="R44" t="n">
         <v>4688.504965942682</v>
@@ -7684,16 +7684,16 @@
         <v>4125.563562316574</v>
       </c>
       <c r="V44" t="n">
-        <v>3762.946612250401</v>
+        <v>4125.563562316574</v>
       </c>
       <c r="W44" t="n">
-        <v>3358.091157661434</v>
+        <v>3720.708107727608</v>
       </c>
       <c r="X44" t="n">
-        <v>2938.948694240745</v>
+        <v>3301.565644306919</v>
       </c>
       <c r="Y44" t="n">
-        <v>2530.662570540399</v>
+        <v>2893.279520606572</v>
       </c>
     </row>
     <row r="45">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>781.8461154418378</v>
+        <v>803.2639367364659</v>
       </c>
       <c r="C46" t="n">
-        <v>609.2844039250627</v>
+        <v>630.7022252196908</v>
       </c>
       <c r="D46" t="n">
-        <v>609.2844039250627</v>
+        <v>464.8242324212135</v>
       </c>
       <c r="E46" t="n">
-        <v>439.5264001758</v>
+        <v>295.0662286719508</v>
       </c>
       <c r="F46" t="n">
-        <v>262.8193461375562</v>
+        <v>118.359174633707</v>
       </c>
       <c r="G46" t="n">
-        <v>97.22807116338385</v>
+        <v>93.77009931885365</v>
       </c>
       <c r="H46" t="n">
         <v>93.77009931885365</v>
@@ -7830,28 +7830,28 @@
         <v>2710.429709221653</v>
       </c>
       <c r="R46" t="n">
-        <v>2689.011887927025</v>
+        <v>2710.429709221653</v>
       </c>
       <c r="S46" t="n">
-        <v>2529.770519225022</v>
+        <v>2551.18834051965</v>
       </c>
       <c r="T46" t="n">
-        <v>2283.891072803477</v>
+        <v>2305.308894098105</v>
       </c>
       <c r="U46" t="n">
-        <v>2005.458072056582</v>
+        <v>2026.87589335121</v>
       </c>
       <c r="V46" t="n">
-        <v>1718.502563927013</v>
+        <v>1739.920385221641</v>
       </c>
       <c r="W46" t="n">
-        <v>1446.476159513304</v>
+        <v>1467.893980807932</v>
       </c>
       <c r="X46" t="n">
-        <v>1201.084404846717</v>
+        <v>1222.502226141345</v>
       </c>
       <c r="Y46" t="n">
-        <v>973.664734160825</v>
+        <v>995.0825554554531</v>
       </c>
     </row>
   </sheetData>
@@ -7984,7 +7984,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
-        <v>145.5272350047208</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7993,16 +7993,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>316.389926674475</v>
       </c>
       <c r="P2" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8054,16 +8054,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8075,10 +8075,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>226.6534083847598</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8136,7 +8136,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -8215,13 +8215,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>88.52591951400984</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>316.389926674475</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8230,7 +8230,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>667.515206607857</v>
@@ -8297,7 +8297,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -8312,10 +8312,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>540.0049805212334</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8455,7 +8455,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8464,13 +8464,13 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>667.515206607857</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157522</v>
@@ -8543,13 +8543,13 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -8689,19 +8689,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>162.8103194923613</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>809.0782778761404</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8926,7 +8926,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>333.6730111621152</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
         <v>842.7780726850283</v>
@@ -8947,7 +8947,7 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
-        <v>552.0189757157522</v>
+        <v>446.0407874304756</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -9008,22 +9008,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9163,19 +9163,19 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>990.0804712831379</v>
@@ -9184,10 +9184,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q17" t="n">
-        <v>86.02274874679097</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9400,7 +9400,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
         <v>842.7780726850283</v>
@@ -9409,22 +9409,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O20" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9637,7 +9637,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
         <v>842.7780726850283</v>
@@ -9646,22 +9646,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9713,16 +9713,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -9731,16 +9731,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -9874,16 +9874,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N26" t="n">
         <v>1137.102003471159</v>
@@ -9892,13 +9892,13 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -9950,13 +9950,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -9965,7 +9965,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>992.4305468772036</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -9974,10 +9974,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -10111,31 +10111,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10187,22 +10187,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -10211,10 +10211,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -10348,31 +10348,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10588,13 +10588,13 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>1085.919157831171</v>
+        <v>702.7389601124028</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>1137.102003471159</v>
@@ -10603,10 +10603,10 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P35" t="n">
-        <v>679.5583048465023</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -10661,22 +10661,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>433.7499898166689</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -10685,10 +10685,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10822,7 +10822,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
         <v>842.7780726850283</v>
@@ -10831,22 +10831,22 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O38" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -11062,19 +11062,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>336.0996312917832</v>
+        <v>884.102282997861</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458549</v>
@@ -11083,7 +11083,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11302,7 +11302,7 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
-        <v>809.0782778761404</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11311,7 +11311,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>990.0804712831379</v>
+        <v>884.102282997861</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458549</v>
@@ -11320,7 +11320,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R44" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>111.2039336442349</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -23269,10 +23269,10 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>14.50199051495957</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23308,10 +23308,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23424,10 +23424,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23466,13 +23466,13 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>22.86827275269451</v>
+        <v>90.2200092229004</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23506,13 +23506,13 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>411.8858435779283</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23560,7 +23560,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>125.6469905667125</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -23700,10 +23700,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>140.7232059832931</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>4.277894049991801</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23907,7 +23907,7 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>87.77334973307141</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>139.5921776627208</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>128.4628789093297</v>
       </c>
     </row>
     <row r="20">
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,10 +24177,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>139.5921776627258</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24189,7 +24189,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>122.4480280049975</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24378,13 +24378,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>135.3636110865066</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24423,7 +24423,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>161.9268490649757</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24432,7 +24432,7 @@
         <v>0</v>
       </c>
       <c r="Y25" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="26">
@@ -24612,16 +24612,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>26.99333424003489</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24660,10 +24660,10 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>81.78272691405297</v>
+        <v>0</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24852,13 +24852,13 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>69.71657238081156</v>
       </c>
       <c r="H31" t="n">
-        <v>135.0797604404447</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25089,10 +25089,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>160.795820744408</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>87.77334973307141</v>
@@ -25131,10 +25131,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>15.21302026266318</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25326,7 +25326,7 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25359,19 +25359,19 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>44.28436272291265</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>102.9863699957346</v>
       </c>
     </row>
     <row r="38">
@@ -25566,7 +25566,7 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>120.4463752142708</v>
+        <v>120.4463752142721</v>
       </c>
       <c r="I40" t="n">
         <v>87.77334973307141</v>
@@ -25645,10 +25645,10 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>111.2039336442351</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -25687,7 +25687,7 @@
         <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>110.7913121651034</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25800,13 +25800,13 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>84.34995760698651</v>
       </c>
       <c r="H43" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,10 +25833,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>139.5921776627253</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25879,13 +25879,13 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>125.2343690875809</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>52.89506301241641</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -25924,7 +25924,7 @@
         <v>0</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
         <v>0</v>
@@ -26028,7 +26028,7 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
@@ -26037,10 +26037,10 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="H46" t="n">
-        <v>135.0797604404443</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
         <v>87.77334973307141</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>581787.9349303537</v>
+        <v>581787.9349303535</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>620394.8292427703</v>
+        <v>620394.8292427701</v>
       </c>
     </row>
     <row r="8">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>620394.8292427701</v>
+        <v>620394.8292427702</v>
       </c>
     </row>
     <row r="12">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>581787.9349303537</v>
+        <v>581787.9349303535</v>
       </c>
     </row>
     <row r="16">
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>375303.1239232859</v>
+      </c>
+      <c r="C2" t="n">
         <v>375303.123923286</v>
       </c>
-      <c r="C2" t="n">
-        <v>375303.1239232861</v>
-      </c>
       <c r="D2" t="n">
-        <v>375303.123923286</v>
+        <v>375303.1239232859</v>
       </c>
       <c r="E2" t="n">
         <v>345850.0296919845</v>
       </c>
       <c r="F2" t="n">
-        <v>345850.0296919845</v>
+        <v>345850.0296919844</v>
       </c>
       <c r="G2" t="n">
         <v>368800.3088961467</v>
       </c>
       <c r="H2" t="n">
-        <v>368800.3088961467</v>
+        <v>368800.3088961466</v>
       </c>
       <c r="I2" t="n">
         <v>368800.3088961466</v>
       </c>
       <c r="J2" t="n">
-        <v>368800.3088961467</v>
+        <v>368800.3088961466</v>
       </c>
       <c r="K2" t="n">
         <v>368800.3088961466</v>
       </c>
       <c r="L2" t="n">
+        <v>368800.3088961465</v>
+      </c>
+      <c r="M2" t="n">
         <v>368800.3088961466</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>368800.3088961467</v>
       </c>
-      <c r="N2" t="n">
-        <v>368800.3088961466</v>
-      </c>
       <c r="O2" t="n">
-        <v>345850.0296919845</v>
+        <v>345850.0296919844</v>
       </c>
       <c r="P2" t="n">
         <v>345850.0296919845</v>
@@ -26365,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>223699.6985840449</v>
+        <v>223699.6985840448</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>150665.7535717478</v>
+        <v>150665.7535717479</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>174651.3487177062</v>
+        <v>174651.3487177061</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>125751.0883356906</v>
+        <v>125751.0883356907</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26429,37 +26429,37 @@
         <v>63769.04507708549</v>
       </c>
       <c r="F4" t="n">
-        <v>63769.04507708547</v>
+        <v>63769.04507708548</v>
       </c>
       <c r="G4" t="n">
+        <v>68000.69828933282</v>
+      </c>
+      <c r="H4" t="n">
         <v>68000.69828933281</v>
       </c>
-      <c r="H4" t="n">
-        <v>68000.69828933282</v>
-      </c>
       <c r="I4" t="n">
-        <v>68000.69828933279</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="J4" t="n">
         <v>68000.69828933279</v>
       </c>
       <c r="K4" t="n">
-        <v>68000.69828933279</v>
+        <v>68000.69828933281</v>
       </c>
       <c r="L4" t="n">
         <v>68000.69828933281</v>
       </c>
       <c r="M4" t="n">
-        <v>68000.69828933281</v>
+        <v>68000.69828933279</v>
       </c>
       <c r="N4" t="n">
-        <v>68000.69828933281</v>
+        <v>68000.69828933282</v>
       </c>
       <c r="O4" t="n">
         <v>63769.04507708548</v>
       </c>
       <c r="P4" t="n">
-        <v>63769.04507708547</v>
+        <v>63769.04507708548</v>
       </c>
     </row>
     <row r="5">
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>74212.52456175772</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="C5" t="n">
         <v>74212.5245617577</v>
@@ -26502,7 +26502,7 @@
         <v>77718.23860579252</v>
       </c>
       <c r="M5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
         <v>77718.23860579252</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-79245.74047519034</v>
+        <v>-79245.74047519044</v>
       </c>
       <c r="C6" t="n">
-        <v>144453.9581088546</v>
+        <v>144453.9581088545</v>
       </c>
       <c r="D6" t="n">
-        <v>144453.9581088545</v>
+        <v>144453.9581088544</v>
       </c>
       <c r="E6" t="n">
-        <v>60149.95556082245</v>
+        <v>60044.76593856775</v>
       </c>
       <c r="F6" t="n">
-        <v>210815.7091325702</v>
+        <v>210710.5195103155</v>
       </c>
       <c r="G6" t="n">
-        <v>193991.5628284135</v>
+        <v>193968.3384890308</v>
       </c>
       <c r="H6" t="n">
-        <v>223081.3720010214</v>
+        <v>223058.1476616386</v>
       </c>
       <c r="I6" t="n">
-        <v>223081.3720010213</v>
+        <v>223058.1476616386</v>
       </c>
       <c r="J6" t="n">
-        <v>48430.02328331518</v>
+        <v>48406.79894393251</v>
       </c>
       <c r="K6" t="n">
-        <v>223081.3720010213</v>
+        <v>223058.1476616386</v>
       </c>
       <c r="L6" t="n">
-        <v>223081.3720010213</v>
+        <v>223058.1476616386</v>
       </c>
       <c r="M6" t="n">
-        <v>97330.2836653308</v>
+        <v>97307.05932594798</v>
       </c>
       <c r="N6" t="n">
-        <v>223081.3720010213</v>
+        <v>223058.1476616388</v>
       </c>
       <c r="O6" t="n">
-        <v>210815.7091325702</v>
+        <v>210710.5195103154</v>
       </c>
       <c r="P6" t="n">
-        <v>210815.7091325703</v>
+        <v>210710.5195103156</v>
       </c>
     </row>
   </sheetData>
@@ -26789,7 +26789,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
         <v>667.515206607857</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>504.6110348778134</v>
+        <v>504.6110348778136</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>504.6110348778132</v>
+        <v>504.6110348778136</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>667.5152066078571</v>
+        <v>667.515206607857</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>504.6110348778134</v>
+        <v>504.6110348778136</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,28 +27378,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>52.65760510107418</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27432,22 +27432,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>372.7964946687788</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27536,7 +27536,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>161.9268490649759</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27551,13 +27551,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>160.7958207444076</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27605,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="5">
@@ -27615,13 +27615,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>86.14502017843148</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>328.833030588585</v>
+        <v>400</v>
       </c>
       <c r="E5" t="n">
         <v>400</v>
@@ -27666,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -27782,13 +27782,13 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
         <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>44.07191583437682</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27824,13 +27824,13 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>54.4833845311633</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27852,19 +27852,19 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>86.14502017843148</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
@@ -27903,22 +27903,22 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.8422500230731</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28010,7 +28010,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28022,7 +28022,7 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>122.9308428424048</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -28076,10 +28076,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>197.171890512211</v>
       </c>
     </row>
     <row r="11">
@@ -29565,7 +29565,7 @@
         <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>0</v>
+        <v>-8.810729923425242e-13</v>
       </c>
       <c r="U29" t="n">
         <v>0</v>
@@ -29711,7 +29711,7 @@
         <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>2.922225424602705e-12</v>
       </c>
       <c r="Q31" t="n">
         <v>0</v>
@@ -34704,7 +34704,7 @@
         <v>667.515206607857</v>
       </c>
       <c r="L2" t="n">
-        <v>145.5272350047208</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34713,16 +34713,16 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>316.389926674475</v>
       </c>
       <c r="P2" t="n">
-        <v>667.5152066078572</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q2" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
-        <v>170.8626916697544</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34774,16 +34774,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L3" t="n">
-        <v>667.5152066078571</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34795,10 +34795,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>667.5152066078572</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>226.6534083847598</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34856,7 +34856,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908057</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
@@ -34865,19 +34865,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>464.1251183645587</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N4" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
-        <v>423.9083325512941</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821543</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,13 +34935,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>88.52591951400984</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>316.389926674475</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34950,7 +34950,7 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
         <v>667.515206607857</v>
@@ -35017,7 +35017,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
         <v>0</v>
@@ -35032,10 +35032,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>667.515206607857</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>540.0049805212334</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35175,7 +35175,7 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>0</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35184,13 +35184,13 @@
         <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>145.5272350047205</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
         <v>667.515206607857</v>
       </c>
       <c r="P8" t="n">
-        <v>667.515206607857</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="Q8" t="n">
         <v>552.0189757157523</v>
@@ -35263,13 +35263,13 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="O9" t="n">
-        <v>0</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>546.2009481132077</v>
@@ -35409,19 +35409,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>439.6511994473918</v>
+        <v>162.8103194923613</v>
       </c>
       <c r="K11" t="n">
-        <v>842.7780726850284</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>809.0782778761404</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35646,10 +35646,10 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>333.6730111621152</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K14" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L14" t="n">
         <v>1085.919157831171</v>
@@ -35667,7 +35667,7 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
-        <v>552.0189757157523</v>
+        <v>446.0407874304756</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35728,22 +35728,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35883,31 +35883,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L17" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N17" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>990.0804712831382</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
         <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
-        <v>86.02274874679097</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36041,13 +36041,13 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
         <v>464.1251183645586</v>
@@ -36056,13 +36056,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O19" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P19" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q19" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,31 +36120,31 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K20" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L20" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>1137.102003471158</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O20" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,10 +36196,10 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J21" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K21" t="n">
         <v>661.3192390158824</v>
@@ -36220,7 +36220,7 @@
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R21" t="n">
         <v>118.3563415094341</v>
@@ -36357,31 +36357,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K23" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L23" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>1137.102003471158</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O23" t="n">
-        <v>826.8607034446131</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P23" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q23" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R23" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,16 +36433,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L24" t="n">
-        <v>964.1848977889938</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -36451,16 +36451,16 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>715.8552653209142</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36594,16 +36594,16 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N26" t="n">
         <v>1137.102003471159</v>
@@ -36612,13 +36612,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,13 +36670,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36685,7 +36685,7 @@
         <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>992.4305468772036</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>0</v>
@@ -36694,10 +36694,10 @@
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36831,31 +36831,31 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K29" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M29" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N29" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,22 +36907,22 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>1210.83316575</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>469.2069973599082</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -36931,10 +36931,10 @@
         <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37007,7 +37007,7 @@
         <v>423.9083325512943</v>
       </c>
       <c r="P31" t="n">
-        <v>351.017064616507</v>
+        <v>351.0170646165097</v>
       </c>
       <c r="Q31" t="n">
         <v>169.8916917821539</v>
@@ -37068,31 +37068,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,10 +37144,10 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>26.32694258632091</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J33" t="n">
-        <v>327.8366918850629</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
         <v>661.3192390158824</v>
@@ -37168,7 +37168,7 @@
         <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>546.2009481132072</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R33" t="n">
         <v>118.3563415094341</v>
@@ -37308,13 +37308,13 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L35" t="n">
-        <v>1085.919157831171</v>
+        <v>702.7389601124028</v>
       </c>
       <c r="M35" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N35" t="n">
         <v>1137.102003471159</v>
@@ -37323,10 +37323,10 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P35" t="n">
-        <v>679.5583048465023</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q35" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37381,22 +37381,22 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>327.836691885063</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>433.7499898166689</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>1246.290173293239</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -37405,10 +37405,10 @@
         <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>118.3563415094341</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,7 +37463,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K37" t="n">
         <v>277.5337924960966</v>
@@ -37542,31 +37542,31 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471158</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O38" t="n">
-        <v>826.8607034446122</v>
+        <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37700,13 +37700,13 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908057</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960963</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L40" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M40" t="n">
         <v>464.1251183645586</v>
@@ -37715,13 +37715,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q40" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37782,19 +37782,19 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>842.7780726850284</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>336.0996312917832</v>
+        <v>884.102282997861</v>
       </c>
       <c r="P41" t="n">
         <v>836.6766412458546</v>
@@ -37803,7 +37803,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38022,7 +38022,7 @@
         <v>842.7780726850284</v>
       </c>
       <c r="L44" t="n">
-        <v>809.0782778761404</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -38031,7 +38031,7 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>990.0804712831377</v>
+        <v>884.102282997861</v>
       </c>
       <c r="P44" t="n">
         <v>836.6766412458546</v>
@@ -38040,7 +38040,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R44" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
